--- a/simulations/raw_inclusion_exclusion/Walker_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Walker_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>2040</v>
+        <v>1016</v>
       </c>
       <c r="D3">
-        <v>2040</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>3291</v>
+        <v>1729</v>
       </c>
       <c r="D5">
-        <v>3291</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>1514</v>
+        <v>520</v>
       </c>
       <c r="D7">
-        <v>1514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>102</v>
       </c>
       <c r="C9">
-        <v>8543</v>
+        <v>7691</v>
       </c>
       <c r="D9">
-        <v>8543</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>392</v>
       </c>
       <c r="C11">
-        <v>1135</v>
+        <v>160</v>
       </c>
       <c r="D11">
-        <v>1135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>503</v>
       </c>
       <c r="C13">
-        <v>2347</v>
+        <v>1628</v>
       </c>
       <c r="D13">
-        <v>2347</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>735</v>
       </c>
       <c r="C15">
-        <v>229</v>
+        <v>14747</v>
       </c>
       <c r="D15">
-        <v>229</v>
+        <v>14747</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>745</v>
       </c>
       <c r="C17">
-        <v>1181</v>
+        <v>166</v>
       </c>
       <c r="D17">
-        <v>1181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>748</v>
       </c>
       <c r="C19">
-        <v>22405</v>
+        <v>22240</v>
       </c>
       <c r="D19">
-        <v>22405</v>
+        <v>22240</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>804</v>
       </c>
       <c r="C21">
-        <v>1993</v>
+        <v>1114</v>
       </c>
       <c r="D21">
-        <v>1993</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>864</v>
       </c>
       <c r="C23">
-        <v>4258</v>
+        <v>3709</v>
       </c>
       <c r="D23">
-        <v>4258</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>938</v>
       </c>
       <c r="C25">
-        <v>1740</v>
+        <v>886</v>
       </c>
       <c r="D25">
-        <v>1740</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1033</v>
       </c>
       <c r="C27">
-        <v>1051</v>
+        <v>391</v>
       </c>
       <c r="D27">
-        <v>1051</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1070</v>
       </c>
       <c r="C29">
-        <v>1221</v>
+        <v>186</v>
       </c>
       <c r="D29">
-        <v>1221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -730,10 +730,10 @@
         <v>1151</v>
       </c>
       <c r="C31">
-        <v>4998</v>
+        <v>4248</v>
       </c>
       <c r="D31">
-        <v>4998</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1170</v>
       </c>
       <c r="C33">
-        <v>24988</v>
+        <v>25953</v>
       </c>
       <c r="D33">
-        <v>24988</v>
+        <v>25953</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -774,10 +774,10 @@
         <v>1181</v>
       </c>
       <c r="C35">
-        <v>1819</v>
+        <v>831</v>
       </c>
       <c r="D35">
-        <v>1819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -796,10 +796,10 @@
         <v>1315</v>
       </c>
       <c r="C37">
-        <v>1521</v>
+        <v>551</v>
       </c>
       <c r="D37">
-        <v>1521</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -818,10 +818,10 @@
         <v>1450</v>
       </c>
       <c r="C39">
-        <v>18238</v>
+        <v>17463</v>
       </c>
       <c r="D39">
-        <v>18238</v>
+        <v>17463</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -840,10 +840,10 @@
         <v>1483</v>
       </c>
       <c r="C41">
-        <v>1535</v>
+        <v>560</v>
       </c>
       <c r="D41">
-        <v>1535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -862,10 +862,10 @@
         <v>1501</v>
       </c>
       <c r="C43">
-        <v>3124</v>
+        <v>2380</v>
       </c>
       <c r="D43">
-        <v>3124</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -884,10 +884,10 @@
         <v>1663</v>
       </c>
       <c r="C45">
-        <v>1105</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>1105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -906,10 +906,10 @@
         <v>1723</v>
       </c>
       <c r="C47">
-        <v>1215</v>
+        <v>207</v>
       </c>
       <c r="D47">
-        <v>1215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -928,10 +928,10 @@
         <v>1785</v>
       </c>
       <c r="C49">
-        <v>2357</v>
+        <v>1446</v>
       </c>
       <c r="D49">
-        <v>2357</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -950,10 +950,10 @@
         <v>1889</v>
       </c>
       <c r="C51">
-        <v>1113</v>
+        <v>139</v>
       </c>
       <c r="D51">
-        <v>1113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -972,10 +972,10 @@
         <v>1972</v>
       </c>
       <c r="C53">
-        <v>18075</v>
+        <v>18099</v>
       </c>
       <c r="D53">
-        <v>18075</v>
+        <v>18099</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -994,10 +994,10 @@
         <v>2043</v>
       </c>
       <c r="C55">
-        <v>661</v>
+        <v>3241</v>
       </c>
       <c r="D55">
-        <v>661</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>2097</v>
       </c>
       <c r="C57">
-        <v>30474</v>
+        <v>30440</v>
       </c>
       <c r="D57">
-        <v>30474</v>
+        <v>30440</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1038,10 +1038,10 @@
         <v>2149</v>
       </c>
       <c r="C59">
-        <v>12555</v>
+        <v>12357</v>
       </c>
       <c r="D59">
-        <v>12555</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1060,10 +1060,10 @@
         <v>2178</v>
       </c>
       <c r="C61">
-        <v>1569</v>
+        <v>611</v>
       </c>
       <c r="D61">
-        <v>1569</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>2248</v>
       </c>
       <c r="C63">
-        <v>5544</v>
+        <v>5074</v>
       </c>
       <c r="D63">
-        <v>5544</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1104,10 +1104,10 @@
         <v>2435</v>
       </c>
       <c r="C65">
-        <v>4292</v>
+        <v>3166</v>
       </c>
       <c r="D65">
-        <v>4292</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1126,10 +1126,10 @@
         <v>2501</v>
       </c>
       <c r="C67">
-        <v>13156</v>
+        <v>12140</v>
       </c>
       <c r="D67">
-        <v>13156</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>2616</v>
       </c>
       <c r="C69">
-        <v>315</v>
+        <v>6981</v>
       </c>
       <c r="D69">
-        <v>315</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>2659</v>
       </c>
       <c r="C71">
-        <v>1173</v>
+        <v>231</v>
       </c>
       <c r="D71">
-        <v>1173</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1192,10 +1192,10 @@
         <v>2693</v>
       </c>
       <c r="C73">
-        <v>1817</v>
+        <v>399</v>
       </c>
       <c r="D73">
-        <v>1817</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1214,10 +1214,10 @@
         <v>2724</v>
       </c>
       <c r="C75">
-        <v>2554</v>
+        <v>863</v>
       </c>
       <c r="D75">
-        <v>2554</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1236,10 +1236,10 @@
         <v>2783</v>
       </c>
       <c r="C77">
-        <v>6409</v>
+        <v>5921</v>
       </c>
       <c r="D77">
-        <v>6409</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>3196</v>
       </c>
       <c r="C79">
-        <v>1099</v>
+        <v>103</v>
       </c>
       <c r="D79">
-        <v>1099</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1280,10 +1280,10 @@
         <v>3358</v>
       </c>
       <c r="C81">
-        <v>4767</v>
+        <v>4080</v>
       </c>
       <c r="D81">
-        <v>4767</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>3515</v>
       </c>
       <c r="C83">
-        <v>6334</v>
+        <v>5672</v>
       </c>
       <c r="D83">
-        <v>6334</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>3537</v>
       </c>
       <c r="C85">
-        <v>2401</v>
+        <v>1475</v>
       </c>
       <c r="D85">
-        <v>2401</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1346,10 +1346,10 @@
         <v>3681</v>
       </c>
       <c r="C87">
-        <v>1756</v>
+        <v>786</v>
       </c>
       <c r="D87">
-        <v>1756</v>
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1368,10 +1368,10 @@
         <v>3858</v>
       </c>
       <c r="C89">
-        <v>1247</v>
+        <v>113</v>
       </c>
       <c r="D89">
-        <v>1247</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1390,10 +1390,10 @@
         <v>4075</v>
       </c>
       <c r="C91">
-        <v>7621</v>
+        <v>7481</v>
       </c>
       <c r="D91">
-        <v>7621</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1412,10 +1412,10 @@
         <v>4152</v>
       </c>
       <c r="C93">
-        <v>1479</v>
+        <v>533</v>
       </c>
       <c r="D93">
-        <v>1479</v>
+        <v>533</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1434,10 +1434,10 @@
         <v>4188</v>
       </c>
       <c r="C95">
-        <v>4083</v>
+        <v>3549</v>
       </c>
       <c r="D95">
-        <v>4083</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1456,10 +1456,10 @@
         <v>4198</v>
       </c>
       <c r="C97">
-        <v>1619</v>
+        <v>577</v>
       </c>
       <c r="D97">
-        <v>1619</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1478,10 +1478,10 @@
         <v>4242</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>8043</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1500,10 +1500,10 @@
         <v>4289</v>
       </c>
       <c r="C101">
-        <v>7516</v>
+        <v>7447</v>
       </c>
       <c r="D101">
-        <v>7516</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1522,10 +1522,10 @@
         <v>4380</v>
       </c>
       <c r="C103">
-        <v>7129</v>
+        <v>7368</v>
       </c>
       <c r="D103">
-        <v>7129</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1547,10 +1547,10 @@
         <v>6730</v>
       </c>
       <c r="C105">
-        <v>7632</v>
+        <v>5728</v>
       </c>
       <c r="D105">
-        <v>7181</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1558,10 +1558,10 @@
         <v>4412</v>
       </c>
       <c r="C106">
-        <v>6775</v>
+        <v>6639</v>
       </c>
       <c r="D106">
-        <v>6775</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1569,10 +1569,10 @@
         <v>4541</v>
       </c>
       <c r="C107">
-        <v>20791</v>
+        <v>20330</v>
       </c>
       <c r="D107">
-        <v>20791</v>
+        <v>20330</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1591,10 +1591,10 @@
         <v>4597</v>
       </c>
       <c r="C109">
-        <v>3897</v>
+        <v>3204</v>
       </c>
       <c r="D109">
-        <v>3897</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1613,10 +1613,10 @@
         <v>4625</v>
       </c>
       <c r="C111">
-        <v>3986</v>
+        <v>3172</v>
       </c>
       <c r="D111">
-        <v>3986</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1635,10 +1635,10 @@
         <v>4666</v>
       </c>
       <c r="C113">
-        <v>20302</v>
+        <v>19019</v>
       </c>
       <c r="D113">
-        <v>20302</v>
+        <v>19019</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>4725</v>
       </c>
       <c r="C115">
-        <v>4924</v>
+        <v>4477</v>
       </c>
       <c r="D115">
-        <v>4924</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1679,10 +1679,10 @@
         <v>4829</v>
       </c>
       <c r="C117">
-        <v>4048</v>
+        <v>2985</v>
       </c>
       <c r="D117">
-        <v>4048</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1701,10 +1701,10 @@
         <v>4904</v>
       </c>
       <c r="C119">
-        <v>2659</v>
+        <v>1563</v>
       </c>
       <c r="D119">
-        <v>2659</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1723,10 +1723,10 @@
         <v>4919</v>
       </c>
       <c r="C121">
-        <v>3127</v>
+        <v>2168</v>
       </c>
       <c r="D121">
-        <v>3127</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1745,10 +1745,10 @@
         <v>5003</v>
       </c>
       <c r="C123">
-        <v>1412</v>
+        <v>386</v>
       </c>
       <c r="D123">
-        <v>1412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1767,10 +1767,10 @@
         <v>5070</v>
       </c>
       <c r="C125">
-        <v>9932</v>
+        <v>10124</v>
       </c>
       <c r="D125">
-        <v>9932</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1789,10 +1789,10 @@
         <v>5339</v>
       </c>
       <c r="C127">
-        <v>1154</v>
+        <v>99</v>
       </c>
       <c r="D127">
-        <v>1154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -1811,10 +1811,10 @@
         <v>5365</v>
       </c>
       <c r="C129">
-        <v>4669</v>
+        <v>3328</v>
       </c>
       <c r="D129">
-        <v>4669</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -1833,10 +1833,10 @@
         <v>5402</v>
       </c>
       <c r="C131">
-        <v>1243</v>
+        <v>232</v>
       </c>
       <c r="D131">
-        <v>1243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -1855,10 +1855,10 @@
         <v>5407</v>
       </c>
       <c r="C133">
-        <v>20794</v>
+        <v>20585</v>
       </c>
       <c r="D133">
-        <v>20794</v>
+        <v>20585</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -1877,10 +1877,10 @@
         <v>5457</v>
       </c>
       <c r="C135">
-        <v>1187</v>
+        <v>307</v>
       </c>
       <c r="D135">
-        <v>1187</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -1899,10 +1899,10 @@
         <v>5462</v>
       </c>
       <c r="C137">
-        <v>3074</v>
+        <v>2248</v>
       </c>
       <c r="D137">
-        <v>3074</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -1921,10 +1921,10 @@
         <v>5465</v>
       </c>
       <c r="C139">
-        <v>2696</v>
+        <v>1875</v>
       </c>
       <c r="D139">
-        <v>2696</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -1943,10 +1943,10 @@
         <v>5476</v>
       </c>
       <c r="C141">
-        <v>9219</v>
+        <v>8875</v>
       </c>
       <c r="D141">
-        <v>9219</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>5617</v>
       </c>
       <c r="C143">
-        <v>1132</v>
+        <v>132</v>
       </c>
       <c r="D143">
-        <v>1132</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>5620</v>
       </c>
       <c r="C145">
-        <v>5498</v>
+        <v>5197</v>
       </c>
       <c r="D145">
-        <v>5498</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2009,10 +2009,10 @@
         <v>5628</v>
       </c>
       <c r="C147">
-        <v>7624</v>
+        <v>7544</v>
       </c>
       <c r="D147">
-        <v>7624</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2031,10 +2031,10 @@
         <v>5690</v>
       </c>
       <c r="C149">
-        <v>4707</v>
+        <v>3647</v>
       </c>
       <c r="D149">
-        <v>4707</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2053,10 +2053,10 @@
         <v>5831</v>
       </c>
       <c r="C151">
-        <v>1263</v>
+        <v>296</v>
       </c>
       <c r="D151">
-        <v>1263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2075,10 +2075,10 @@
         <v>5871</v>
       </c>
       <c r="C153">
-        <v>1598</v>
+        <v>373</v>
       </c>
       <c r="D153">
-        <v>1598</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2097,10 +2097,10 @@
         <v>5971</v>
       </c>
       <c r="C155">
-        <v>1805</v>
+        <v>812</v>
       </c>
       <c r="D155">
-        <v>1805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>6098</v>
       </c>
       <c r="C157">
-        <v>1074</v>
+        <v>83</v>
       </c>
       <c r="D157">
-        <v>1074</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2141,10 +2141,10 @@
         <v>6134</v>
       </c>
       <c r="C159">
-        <v>4965</v>
+        <v>4224</v>
       </c>
       <c r="D159">
-        <v>4965</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2163,10 +2163,10 @@
         <v>6184</v>
       </c>
       <c r="C161">
-        <v>1231</v>
+        <v>155</v>
       </c>
       <c r="D161">
-        <v>1231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2185,10 +2185,10 @@
         <v>6299</v>
       </c>
       <c r="C163">
-        <v>4841</v>
+        <v>4415</v>
       </c>
       <c r="D163">
-        <v>4841</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2207,10 +2207,10 @@
         <v>6340</v>
       </c>
       <c r="C165">
-        <v>2431</v>
+        <v>1559</v>
       </c>
       <c r="D165">
-        <v>2431</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2229,10 +2229,10 @@
         <v>6373</v>
       </c>
       <c r="C167">
-        <v>22354</v>
+        <v>22422</v>
       </c>
       <c r="D167">
-        <v>22354</v>
+        <v>22422</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2251,10 +2251,10 @@
         <v>6477</v>
       </c>
       <c r="C169">
-        <v>4758</v>
+        <v>3298</v>
       </c>
       <c r="D169">
-        <v>4758</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2273,10 +2273,10 @@
         <v>6583</v>
       </c>
       <c r="C171">
-        <v>18080</v>
+        <v>18112</v>
       </c>
       <c r="D171">
-        <v>18080</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2298,10 +2298,10 @@
         <v>17371</v>
       </c>
       <c r="C173">
-        <v>532</v>
+        <v>3658</v>
       </c>
       <c r="D173">
-        <v>8951.5</v>
+        <v>10514.5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2309,10 +2309,10 @@
         <v>6824</v>
       </c>
       <c r="C174">
-        <v>17203</v>
+        <v>17165</v>
       </c>
       <c r="D174">
-        <v>17203</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2331,10 +2331,10 @@
         <v>6827</v>
       </c>
       <c r="C176">
-        <v>7115</v>
+        <v>7471</v>
       </c>
       <c r="D176">
-        <v>7115</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2353,10 +2353,10 @@
         <v>6849</v>
       </c>
       <c r="C178">
-        <v>1777</v>
+        <v>911</v>
       </c>
       <c r="D178">
-        <v>1777</v>
+        <v>911</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2375,10 +2375,10 @@
         <v>6900</v>
       </c>
       <c r="C180">
-        <v>1139</v>
+        <v>162</v>
       </c>
       <c r="D180">
-        <v>1139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2397,10 +2397,10 @@
         <v>6918</v>
       </c>
       <c r="C182">
-        <v>1103</v>
+        <v>93</v>
       </c>
       <c r="D182">
-        <v>1103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2419,10 +2419,10 @@
         <v>6940</v>
       </c>
       <c r="C184">
-        <v>505</v>
+        <v>2589</v>
       </c>
       <c r="D184">
-        <v>505</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>6969</v>
       </c>
       <c r="C186">
-        <v>1387</v>
+        <v>206</v>
       </c>
       <c r="D186">
-        <v>1387</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2463,10 +2463,10 @@
         <v>7221</v>
       </c>
       <c r="C188">
-        <v>5356</v>
+        <v>4693</v>
       </c>
       <c r="D188">
-        <v>5356</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -2485,10 +2485,10 @@
         <v>7342</v>
       </c>
       <c r="C190">
-        <v>3040</v>
+        <v>2266</v>
       </c>
       <c r="D190">
-        <v>3040</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -2507,10 +2507,10 @@
         <v>7351</v>
       </c>
       <c r="C192">
-        <v>1029</v>
+        <v>8</v>
       </c>
       <c r="D192">
-        <v>1029</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2529,10 +2529,10 @@
         <v>7372</v>
       </c>
       <c r="C194">
-        <v>2139</v>
+        <v>1166</v>
       </c>
       <c r="D194">
-        <v>2139</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2551,10 +2551,10 @@
         <v>7405</v>
       </c>
       <c r="C196">
-        <v>1266</v>
+        <v>269</v>
       </c>
       <c r="D196">
-        <v>1266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2576,10 +2576,10 @@
         <v>6691</v>
       </c>
       <c r="C198">
-        <v>3100</v>
+        <v>1170</v>
       </c>
       <c r="D198">
-        <v>4895.5</v>
+        <v>3930.5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -2587,10 +2587,10 @@
         <v>7424</v>
       </c>
       <c r="C199">
-        <v>6860</v>
+        <v>6586</v>
       </c>
       <c r="D199">
-        <v>6860</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>7441</v>
       </c>
       <c r="C201">
-        <v>2995</v>
+        <v>2498</v>
       </c>
       <c r="D201">
-        <v>2995</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>7584</v>
       </c>
       <c r="C203">
-        <v>1126</v>
+        <v>134</v>
       </c>
       <c r="D203">
-        <v>1126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2653,10 +2653,10 @@
         <v>7622</v>
       </c>
       <c r="C205">
-        <v>1082</v>
+        <v>86</v>
       </c>
       <c r="D205">
-        <v>1082</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2675,10 +2675,10 @@
         <v>7661</v>
       </c>
       <c r="C207">
-        <v>10685</v>
+        <v>9702</v>
       </c>
       <c r="D207">
-        <v>10685</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2697,10 +2697,10 @@
         <v>7666</v>
       </c>
       <c r="C209">
-        <v>15870</v>
+        <v>15185</v>
       </c>
       <c r="D209">
-        <v>15870</v>
+        <v>15185</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>7697</v>
       </c>
       <c r="C211">
-        <v>29369</v>
+        <v>29719</v>
       </c>
       <c r="D211">
-        <v>29369</v>
+        <v>29719</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2741,10 +2741,10 @@
         <v>7722</v>
       </c>
       <c r="C213">
-        <v>3228</v>
+        <v>1790</v>
       </c>
       <c r="D213">
-        <v>3228</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>7753</v>
       </c>
       <c r="C215">
-        <v>1662</v>
+        <v>716</v>
       </c>
       <c r="D215">
-        <v>1662</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2785,10 +2785,10 @@
         <v>7863</v>
       </c>
       <c r="C217">
-        <v>1343</v>
+        <v>316</v>
       </c>
       <c r="D217">
-        <v>1343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2807,10 +2807,10 @@
         <v>7904</v>
       </c>
       <c r="C219">
-        <v>1383</v>
+        <v>230</v>
       </c>
       <c r="D219">
-        <v>1383</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2829,10 +2829,10 @@
         <v>8188</v>
       </c>
       <c r="C221">
-        <v>11978</v>
+        <v>13275</v>
       </c>
       <c r="D221">
-        <v>11978</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2851,10 +2851,10 @@
         <v>8227</v>
       </c>
       <c r="C223">
-        <v>2594</v>
+        <v>1198</v>
       </c>
       <c r="D223">
-        <v>2594</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -2873,10 +2873,10 @@
         <v>8242</v>
       </c>
       <c r="C225">
-        <v>12112</v>
+        <v>10687</v>
       </c>
       <c r="D225">
-        <v>12112</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -2895,10 +2895,10 @@
         <v>8320</v>
       </c>
       <c r="C227">
-        <v>4018</v>
+        <v>2235</v>
       </c>
       <c r="D227">
-        <v>4018</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -2920,10 +2920,10 @@
         <v>7311</v>
       </c>
       <c r="C229">
-        <v>27347</v>
+        <v>26589</v>
       </c>
       <c r="D229">
-        <v>17329</v>
+        <v>16950</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>8354</v>
       </c>
       <c r="C230">
-        <v>7472</v>
+        <v>7315</v>
       </c>
       <c r="D230">
-        <v>7472</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2953,10 +2953,10 @@
         <v>8486</v>
       </c>
       <c r="C232">
-        <v>3532</v>
+        <v>2790</v>
       </c>
       <c r="D232">
-        <v>3532</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -2975,10 +2975,10 @@
         <v>8507</v>
       </c>
       <c r="C234">
-        <v>1043</v>
+        <v>14</v>
       </c>
       <c r="D234">
-        <v>1043</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>8513</v>
       </c>
       <c r="C236">
-        <v>1513</v>
+        <v>521</v>
       </c>
       <c r="D236">
-        <v>1513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3019,10 +3019,10 @@
         <v>8549</v>
       </c>
       <c r="C238">
-        <v>1085</v>
+        <v>92</v>
       </c>
       <c r="D238">
-        <v>1085</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3041,10 +3041,10 @@
         <v>8562</v>
       </c>
       <c r="C240">
-        <v>1709</v>
+        <v>619</v>
       </c>
       <c r="D240">
-        <v>1709</v>
+        <v>619</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3063,10 +3063,10 @@
         <v>8764</v>
       </c>
       <c r="C242">
-        <v>26514</v>
+        <v>27110</v>
       </c>
       <c r="D242">
-        <v>26514</v>
+        <v>27110</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>8770</v>
       </c>
       <c r="C244">
-        <v>1269</v>
+        <v>291</v>
       </c>
       <c r="D244">
-        <v>1269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3107,10 +3107,10 @@
         <v>8897</v>
       </c>
       <c r="C246">
-        <v>2563</v>
+        <v>1429</v>
       </c>
       <c r="D246">
-        <v>2563</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3129,10 +3129,10 @@
         <v>8925</v>
       </c>
       <c r="C248">
-        <v>3768</v>
+        <v>2994</v>
       </c>
       <c r="D248">
-        <v>3768</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3151,10 +3151,10 @@
         <v>9215</v>
       </c>
       <c r="C250">
-        <v>337</v>
+        <v>6989</v>
       </c>
       <c r="D250">
-        <v>337</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3173,10 +3173,10 @@
         <v>9267</v>
       </c>
       <c r="C252">
-        <v>1587</v>
+        <v>737</v>
       </c>
       <c r="D252">
-        <v>1587</v>
+        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3195,10 +3195,10 @@
         <v>9280</v>
       </c>
       <c r="C254">
-        <v>2575</v>
+        <v>977</v>
       </c>
       <c r="D254">
-        <v>2575</v>
+        <v>977</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3217,10 +3217,10 @@
         <v>9285</v>
       </c>
       <c r="C256">
-        <v>1160</v>
+        <v>172</v>
       </c>
       <c r="D256">
-        <v>1160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>9434</v>
       </c>
       <c r="C258">
-        <v>1281</v>
+        <v>252</v>
       </c>
       <c r="D258">
-        <v>1281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3261,10 +3261,10 @@
         <v>9451</v>
       </c>
       <c r="C260">
-        <v>2412</v>
+        <v>1620</v>
       </c>
       <c r="D260">
-        <v>2412</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -3283,10 +3283,10 @@
         <v>9482</v>
       </c>
       <c r="C262">
-        <v>1148</v>
+        <v>156</v>
       </c>
       <c r="D262">
-        <v>1148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -3305,10 +3305,10 @@
         <v>9521</v>
       </c>
       <c r="C264">
-        <v>5887</v>
+        <v>5638</v>
       </c>
       <c r="D264">
-        <v>5887</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -3327,10 +3327,10 @@
         <v>9573</v>
       </c>
       <c r="C266">
-        <v>3830</v>
+        <v>3814</v>
       </c>
       <c r="D266">
-        <v>3830</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -3349,10 +3349,10 @@
         <v>9864</v>
       </c>
       <c r="C268">
-        <v>5422</v>
+        <v>4610</v>
       </c>
       <c r="D268">
-        <v>5422</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>9877</v>
       </c>
       <c r="C270">
-        <v>5451</v>
+        <v>4890</v>
       </c>
       <c r="D270">
-        <v>5451</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>9902</v>
       </c>
       <c r="C272">
-        <v>19668</v>
+        <v>19655</v>
       </c>
       <c r="D272">
-        <v>19668</v>
+        <v>19655</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -3415,10 +3415,10 @@
         <v>10000</v>
       </c>
       <c r="C274">
-        <v>4957</v>
+        <v>4183</v>
       </c>
       <c r="D274">
-        <v>4957</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -3437,10 +3437,10 @@
         <v>10058</v>
       </c>
       <c r="C276">
-        <v>4588</v>
+        <v>4137</v>
       </c>
       <c r="D276">
-        <v>4588</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -3459,10 +3459,10 @@
         <v>10107</v>
       </c>
       <c r="C278">
-        <v>2462</v>
+        <v>1864</v>
       </c>
       <c r="D278">
-        <v>2462</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -3481,10 +3481,10 @@
         <v>10186</v>
       </c>
       <c r="C280">
-        <v>1075</v>
+        <v>79</v>
       </c>
       <c r="D280">
-        <v>1075</v>
+        <v>79</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -3503,10 +3503,10 @@
         <v>10207</v>
       </c>
       <c r="C282">
-        <v>2077</v>
+        <v>1258</v>
       </c>
       <c r="D282">
-        <v>2077</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -3525,10 +3525,10 @@
         <v>10268</v>
       </c>
       <c r="C284">
-        <v>1567</v>
+        <v>561</v>
       </c>
       <c r="D284">
-        <v>1567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>10347</v>
       </c>
       <c r="C286">
-        <v>2233</v>
+        <v>1042</v>
       </c>
       <c r="D286">
-        <v>2233</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -3569,10 +3569,10 @@
         <v>10397</v>
       </c>
       <c r="C288">
-        <v>1601</v>
+        <v>602</v>
       </c>
       <c r="D288">
-        <v>1601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -3591,10 +3591,10 @@
         <v>10442</v>
       </c>
       <c r="C290">
-        <v>4253</v>
+        <v>3600</v>
       </c>
       <c r="D290">
-        <v>4253</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -3613,10 +3613,10 @@
         <v>10446</v>
       </c>
       <c r="C292">
-        <v>1100</v>
+        <v>110</v>
       </c>
       <c r="D292">
-        <v>1100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -3646,10 +3646,10 @@
         <v>10449</v>
       </c>
       <c r="C295">
-        <v>697</v>
+        <v>7208</v>
       </c>
       <c r="D295">
-        <v>697</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -3657,10 +3657,10 @@
         <v>10450</v>
       </c>
       <c r="C296">
-        <v>11695</v>
+        <v>11836</v>
       </c>
       <c r="D296">
-        <v>11695</v>
+        <v>11836</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -3679,10 +3679,10 @@
         <v>10460</v>
       </c>
       <c r="C298">
-        <v>1028</v>
+        <v>44</v>
       </c>
       <c r="D298">
-        <v>1028</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>10807</v>
       </c>
       <c r="C300">
-        <v>7441</v>
+        <v>7519</v>
       </c>
       <c r="D300">
-        <v>7441</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -3723,10 +3723,10 @@
         <v>10882</v>
       </c>
       <c r="C302">
-        <v>759</v>
+        <v>5001</v>
       </c>
       <c r="D302">
-        <v>759</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -3745,10 +3745,10 @@
         <v>10892</v>
       </c>
       <c r="C304">
-        <v>3878</v>
+        <v>2682</v>
       </c>
       <c r="D304">
-        <v>3878</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>10906</v>
       </c>
       <c r="C306">
-        <v>1087</v>
+        <v>77</v>
       </c>
       <c r="D306">
-        <v>1087</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -3789,10 +3789,10 @@
         <v>10939</v>
       </c>
       <c r="C308">
-        <v>28003</v>
+        <v>28026</v>
       </c>
       <c r="D308">
-        <v>28003</v>
+        <v>28026</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -3811,10 +3811,10 @@
         <v>11082</v>
       </c>
       <c r="C310">
-        <v>2935</v>
+        <v>2254</v>
       </c>
       <c r="D310">
-        <v>2935</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -3833,10 +3833,10 @@
         <v>11103</v>
       </c>
       <c r="C312">
-        <v>1827</v>
+        <v>846</v>
       </c>
       <c r="D312">
-        <v>1827</v>
+        <v>846</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>11131</v>
       </c>
       <c r="C314">
-        <v>5977</v>
+        <v>5561</v>
       </c>
       <c r="D314">
-        <v>5977</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -3877,10 +3877,10 @@
         <v>11163</v>
       </c>
       <c r="C316">
-        <v>8596</v>
+        <v>8552</v>
       </c>
       <c r="D316">
-        <v>8596</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -3899,10 +3899,10 @@
         <v>11200</v>
       </c>
       <c r="C318">
-        <v>1170</v>
+        <v>203</v>
       </c>
       <c r="D318">
-        <v>1170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>11280</v>
       </c>
       <c r="C320">
-        <v>2691</v>
+        <v>1909</v>
       </c>
       <c r="D320">
-        <v>2691</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -3946,10 +3946,10 @@
         <v>2376</v>
       </c>
       <c r="C322">
-        <v>1515</v>
+        <v>593</v>
       </c>
       <c r="D322">
-        <v>1945.5</v>
+        <v>1484.5</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -3957,10 +3957,10 @@
         <v>11292</v>
       </c>
       <c r="C323">
-        <v>3135</v>
+        <v>2191</v>
       </c>
       <c r="D323">
-        <v>3135</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -3979,10 +3979,10 @@
         <v>11339</v>
       </c>
       <c r="C325">
-        <v>1226</v>
+        <v>195</v>
       </c>
       <c r="D325">
-        <v>1226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4001,10 +4001,10 @@
         <v>11359</v>
       </c>
       <c r="C327">
-        <v>1149</v>
+        <v>118</v>
       </c>
       <c r="D327">
-        <v>1149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>11451</v>
       </c>
       <c r="C329">
-        <v>1829</v>
+        <v>819</v>
       </c>
       <c r="D329">
-        <v>1829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4045,10 +4045,10 @@
         <v>11526</v>
       </c>
       <c r="C331">
-        <v>20521</v>
+        <v>21154</v>
       </c>
       <c r="D331">
-        <v>20521</v>
+        <v>21154</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -4067,10 +4067,10 @@
         <v>11564</v>
       </c>
       <c r="C333">
-        <v>11262</v>
+        <v>11299</v>
       </c>
       <c r="D333">
-        <v>11262</v>
+        <v>11299</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>11615</v>
       </c>
       <c r="C335">
-        <v>1151</v>
+        <v>189</v>
       </c>
       <c r="D335">
-        <v>1151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -4111,10 +4111,10 @@
         <v>11726</v>
       </c>
       <c r="C337">
-        <v>4548</v>
+        <v>3831</v>
       </c>
       <c r="D337">
-        <v>4548</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -4133,10 +4133,10 @@
         <v>11807</v>
       </c>
       <c r="C339">
-        <v>3430</v>
+        <v>2634</v>
       </c>
       <c r="D339">
-        <v>3430</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -4155,10 +4155,10 @@
         <v>11855</v>
       </c>
       <c r="C341">
-        <v>1353</v>
+        <v>66</v>
       </c>
       <c r="D341">
-        <v>1353</v>
+        <v>66</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>11858</v>
       </c>
       <c r="C343">
-        <v>1092</v>
+        <v>98</v>
       </c>
       <c r="D343">
-        <v>1092</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -4199,10 +4199,10 @@
         <v>12106</v>
       </c>
       <c r="C345">
-        <v>2707</v>
+        <v>1981</v>
       </c>
       <c r="D345">
-        <v>2707</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -4221,10 +4221,10 @@
         <v>12119</v>
       </c>
       <c r="C347">
-        <v>2112</v>
+        <v>1456</v>
       </c>
       <c r="D347">
-        <v>2112</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -4243,10 +4243,10 @@
         <v>12327</v>
       </c>
       <c r="C349">
-        <v>2946</v>
+        <v>2237</v>
       </c>
       <c r="D349">
-        <v>2946</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -4265,10 +4265,10 @@
         <v>12440</v>
       </c>
       <c r="C351">
-        <v>972</v>
+        <v>3605</v>
       </c>
       <c r="D351">
-        <v>972</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -4287,10 +4287,10 @@
         <v>12474</v>
       </c>
       <c r="C353">
-        <v>1186</v>
+        <v>171</v>
       </c>
       <c r="D353">
-        <v>1186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -4309,10 +4309,10 @@
         <v>12508</v>
       </c>
       <c r="C355">
-        <v>2625</v>
+        <v>1928</v>
       </c>
       <c r="D355">
-        <v>2625</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>12609</v>
       </c>
       <c r="C357">
-        <v>24487</v>
+        <v>24642</v>
       </c>
       <c r="D357">
-        <v>24487</v>
+        <v>24642</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -4353,10 +4353,10 @@
         <v>12630</v>
       </c>
       <c r="C359">
-        <v>4145</v>
+        <v>3227</v>
       </c>
       <c r="D359">
-        <v>4145</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -4375,10 +4375,10 @@
         <v>12654</v>
       </c>
       <c r="C361">
-        <v>1372</v>
+        <v>470</v>
       </c>
       <c r="D361">
-        <v>1372</v>
+        <v>470</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -4397,10 +4397,10 @@
         <v>12690</v>
       </c>
       <c r="C363">
-        <v>8450</v>
+        <v>7885</v>
       </c>
       <c r="D363">
-        <v>8450</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -4419,10 +4419,10 @@
         <v>12701</v>
       </c>
       <c r="C365">
-        <v>1027</v>
+        <v>46</v>
       </c>
       <c r="D365">
-        <v>1027</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -4441,10 +4441,10 @@
         <v>12888</v>
       </c>
       <c r="C367">
-        <v>1114</v>
+        <v>115</v>
       </c>
       <c r="D367">
-        <v>1114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -4463,10 +4463,10 @@
         <v>12896</v>
       </c>
       <c r="C369">
-        <v>1109</v>
+        <v>128</v>
       </c>
       <c r="D369">
-        <v>1109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -4496,10 +4496,10 @@
         <v>12951</v>
       </c>
       <c r="C372">
-        <v>19551</v>
+        <v>19478</v>
       </c>
       <c r="D372">
-        <v>19551</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -4507,10 +4507,10 @@
         <v>12952</v>
       </c>
       <c r="C373">
-        <v>8699</v>
+        <v>8456</v>
       </c>
       <c r="D373">
-        <v>8699</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -4529,10 +4529,10 @@
         <v>12955</v>
       </c>
       <c r="C375">
-        <v>2912</v>
+        <v>2071</v>
       </c>
       <c r="D375">
-        <v>2912</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -4551,10 +4551,10 @@
         <v>13021</v>
       </c>
       <c r="C377">
-        <v>2131</v>
+        <v>1110</v>
       </c>
       <c r="D377">
-        <v>2131</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -4573,10 +4573,10 @@
         <v>13030</v>
       </c>
       <c r="C379">
-        <v>1299</v>
+        <v>257</v>
       </c>
       <c r="D379">
-        <v>1299</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -4595,10 +4595,10 @@
         <v>13076</v>
       </c>
       <c r="C381">
-        <v>1180</v>
+        <v>157</v>
       </c>
       <c r="D381">
-        <v>1180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -4617,10 +4617,10 @@
         <v>13126</v>
       </c>
       <c r="C383">
-        <v>18806</v>
+        <v>19305</v>
       </c>
       <c r="D383">
-        <v>18806</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>13138</v>
       </c>
       <c r="C385">
-        <v>10157</v>
+        <v>9191</v>
       </c>
       <c r="D385">
-        <v>10157</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -4661,10 +4661,10 @@
         <v>13307</v>
       </c>
       <c r="C387">
-        <v>2749</v>
+        <v>1542</v>
       </c>
       <c r="D387">
-        <v>2749</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -4683,10 +4683,10 @@
         <v>13336</v>
       </c>
       <c r="C389">
-        <v>3566</v>
+        <v>3137</v>
       </c>
       <c r="D389">
-        <v>3566</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -4705,10 +4705,10 @@
         <v>13420</v>
       </c>
       <c r="C391">
-        <v>1065</v>
+        <v>72</v>
       </c>
       <c r="D391">
-        <v>1065</v>
+        <v>72</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -4727,10 +4727,10 @@
         <v>13530</v>
       </c>
       <c r="C393">
-        <v>9524</v>
+        <v>9423</v>
       </c>
       <c r="D393">
-        <v>9524</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -4749,10 +4749,10 @@
         <v>13537</v>
       </c>
       <c r="C395">
-        <v>1443</v>
+        <v>27</v>
       </c>
       <c r="D395">
-        <v>1443</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -4771,10 +4771,10 @@
         <v>13566</v>
       </c>
       <c r="C397">
-        <v>11563</v>
+        <v>10133</v>
       </c>
       <c r="D397">
-        <v>11563</v>
+        <v>10133</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>13572</v>
       </c>
       <c r="C399">
-        <v>5930</v>
+        <v>5223</v>
       </c>
       <c r="D399">
-        <v>5930</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -4815,10 +4815,10 @@
         <v>13618</v>
       </c>
       <c r="C401">
-        <v>1019</v>
+        <v>11</v>
       </c>
       <c r="D401">
-        <v>1019</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -4837,10 +4837,10 @@
         <v>13621</v>
       </c>
       <c r="C403">
-        <v>455</v>
+        <v>3653</v>
       </c>
       <c r="D403">
-        <v>455</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>13661</v>
       </c>
       <c r="C405">
-        <v>1728</v>
+        <v>306</v>
       </c>
       <c r="D405">
-        <v>1728</v>
+        <v>306</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -4881,10 +4881,10 @@
         <v>13674</v>
       </c>
       <c r="C407">
-        <v>2182</v>
+        <v>1264</v>
       </c>
       <c r="D407">
-        <v>2182</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -4903,10 +4903,10 @@
         <v>13833</v>
       </c>
       <c r="C409">
-        <v>1543</v>
+        <v>616</v>
       </c>
       <c r="D409">
-        <v>1543</v>
+        <v>616</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -4925,10 +4925,10 @@
         <v>13884</v>
       </c>
       <c r="C411">
-        <v>17233</v>
+        <v>16992</v>
       </c>
       <c r="D411">
-        <v>17233</v>
+        <v>16992</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>13927</v>
       </c>
       <c r="C413">
-        <v>1746</v>
+        <v>665</v>
       </c>
       <c r="D413">
-        <v>1746</v>
+        <v>665</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -4969,10 +4969,10 @@
         <v>14058</v>
       </c>
       <c r="C415">
-        <v>1038</v>
+        <v>3</v>
       </c>
       <c r="D415">
-        <v>1038</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -4991,10 +4991,10 @@
         <v>14143</v>
       </c>
       <c r="C417">
-        <v>1191</v>
+        <v>183</v>
       </c>
       <c r="D417">
-        <v>1191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -5013,10 +5013,10 @@
         <v>14178</v>
       </c>
       <c r="C419">
-        <v>1280</v>
+        <v>240</v>
       </c>
       <c r="D419">
-        <v>1280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -5035,10 +5035,10 @@
         <v>14294</v>
       </c>
       <c r="C421">
-        <v>1881</v>
+        <v>641</v>
       </c>
       <c r="D421">
-        <v>1881</v>
+        <v>641</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -5057,10 +5057,10 @@
         <v>14337</v>
       </c>
       <c r="C423">
-        <v>1784</v>
+        <v>784</v>
       </c>
       <c r="D423">
-        <v>1784</v>
+        <v>784</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -5079,10 +5079,10 @@
         <v>14374</v>
       </c>
       <c r="C425">
-        <v>2537</v>
+        <v>1887</v>
       </c>
       <c r="D425">
-        <v>2537</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>14481</v>
       </c>
       <c r="C427">
-        <v>773</v>
+        <v>14754</v>
       </c>
       <c r="D427">
-        <v>773</v>
+        <v>14754</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -5123,10 +5123,10 @@
         <v>14507</v>
       </c>
       <c r="C429">
-        <v>2532</v>
+        <v>1639</v>
       </c>
       <c r="D429">
-        <v>2532</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -5145,10 +5145,10 @@
         <v>14555</v>
       </c>
       <c r="C431">
-        <v>1609</v>
+        <v>656</v>
       </c>
       <c r="D431">
-        <v>1609</v>
+        <v>656</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>14864</v>
       </c>
       <c r="C433">
-        <v>25539</v>
+        <v>26022</v>
       </c>
       <c r="D433">
-        <v>25539</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -5189,10 +5189,10 @@
         <v>14914</v>
       </c>
       <c r="C435">
-        <v>3356</v>
+        <v>2490</v>
       </c>
       <c r="D435">
-        <v>3356</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -5211,10 +5211,10 @@
         <v>14944</v>
       </c>
       <c r="C437">
-        <v>1432</v>
+        <v>279</v>
       </c>
       <c r="D437">
-        <v>1432</v>
+        <v>279</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -5233,10 +5233,10 @@
         <v>14981</v>
       </c>
       <c r="C439">
-        <v>4648</v>
+        <v>4654</v>
       </c>
       <c r="D439">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -5266,10 +5266,10 @@
         <v>14989</v>
       </c>
       <c r="C442">
-        <v>10875</v>
+        <v>10563</v>
       </c>
       <c r="D442">
-        <v>10875</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -5277,10 +5277,10 @@
         <v>14990</v>
       </c>
       <c r="C443">
-        <v>23341</v>
+        <v>19807</v>
       </c>
       <c r="D443">
-        <v>23341</v>
+        <v>19807</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -5299,10 +5299,10 @@
         <v>15066</v>
       </c>
       <c r="C445">
-        <v>1634</v>
+        <v>746</v>
       </c>
       <c r="D445">
-        <v>1634</v>
+        <v>746</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -5321,10 +5321,10 @@
         <v>15224</v>
       </c>
       <c r="C447">
-        <v>1741</v>
+        <v>827</v>
       </c>
       <c r="D447">
-        <v>1741</v>
+        <v>827</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -5343,10 +5343,10 @@
         <v>15252</v>
       </c>
       <c r="C449">
-        <v>3053</v>
+        <v>1654</v>
       </c>
       <c r="D449">
-        <v>3053</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -5365,10 +5365,10 @@
         <v>15258</v>
       </c>
       <c r="C451">
-        <v>3061</v>
+        <v>1910</v>
       </c>
       <c r="D451">
-        <v>3061</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -5387,10 +5387,10 @@
         <v>15383</v>
       </c>
       <c r="C453">
-        <v>7045</v>
+        <v>7247</v>
       </c>
       <c r="D453">
-        <v>7045</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -5409,10 +5409,10 @@
         <v>15482</v>
       </c>
       <c r="C455">
-        <v>3456</v>
+        <v>2003</v>
       </c>
       <c r="D455">
-        <v>3456</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -5431,10 +5431,10 @@
         <v>15550</v>
       </c>
       <c r="C457">
-        <v>693</v>
+        <v>6529</v>
       </c>
       <c r="D457">
-        <v>693</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -5453,10 +5453,10 @@
         <v>15752</v>
       </c>
       <c r="C459">
-        <v>1124</v>
+        <v>168</v>
       </c>
       <c r="D459">
-        <v>1124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -5475,10 +5475,10 @@
         <v>15845</v>
       </c>
       <c r="C461">
-        <v>9011</v>
+        <v>8833</v>
       </c>
       <c r="D461">
-        <v>9011</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -5497,10 +5497,10 @@
         <v>15984</v>
       </c>
       <c r="C463">
-        <v>1612</v>
+        <v>532</v>
       </c>
       <c r="D463">
-        <v>1612</v>
+        <v>532</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -5519,10 +5519,10 @@
         <v>16063</v>
       </c>
       <c r="C465">
-        <v>5669</v>
+        <v>5452</v>
       </c>
       <c r="D465">
-        <v>5669</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -5541,10 +5541,10 @@
         <v>16078</v>
       </c>
       <c r="C467">
-        <v>16005</v>
+        <v>16326</v>
       </c>
       <c r="D467">
-        <v>16005</v>
+        <v>16326</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -5563,10 +5563,10 @@
         <v>16113</v>
       </c>
       <c r="C469">
-        <v>5210</v>
+        <v>4275</v>
       </c>
       <c r="D469">
-        <v>5210</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -5585,10 +5585,10 @@
         <v>16155</v>
       </c>
       <c r="C471">
-        <v>2582</v>
+        <v>1565</v>
       </c>
       <c r="D471">
-        <v>2582</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -5607,10 +5607,10 @@
         <v>16171</v>
       </c>
       <c r="C473">
-        <v>3497</v>
+        <v>2778</v>
       </c>
       <c r="D473">
-        <v>3497</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -5629,10 +5629,10 @@
         <v>16186</v>
       </c>
       <c r="C475">
-        <v>1399</v>
+        <v>317</v>
       </c>
       <c r="D475">
-        <v>1399</v>
+        <v>317</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -5651,10 +5651,10 @@
         <v>16211</v>
       </c>
       <c r="C477">
-        <v>1086</v>
+        <v>76</v>
       </c>
       <c r="D477">
-        <v>1086</v>
+        <v>76</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -5673,10 +5673,10 @@
         <v>16299</v>
       </c>
       <c r="C479">
-        <v>3406</v>
+        <v>2669</v>
       </c>
       <c r="D479">
-        <v>3406</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -5695,10 +5695,10 @@
         <v>16407</v>
       </c>
       <c r="C481">
-        <v>2982</v>
+        <v>2207</v>
       </c>
       <c r="D481">
-        <v>2982</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>16410</v>
       </c>
       <c r="C483">
-        <v>1313</v>
+        <v>354</v>
       </c>
       <c r="D483">
-        <v>1313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -5739,10 +5739,10 @@
         <v>16503</v>
       </c>
       <c r="C485">
-        <v>4400</v>
+        <v>3956</v>
       </c>
       <c r="D485">
-        <v>4400</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -5761,10 +5761,10 @@
         <v>16579</v>
       </c>
       <c r="C487">
-        <v>13916</v>
+        <v>13944</v>
       </c>
       <c r="D487">
-        <v>13916</v>
+        <v>13944</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -5783,10 +5783,10 @@
         <v>16628</v>
       </c>
       <c r="C489">
-        <v>1161</v>
+        <v>174</v>
       </c>
       <c r="D489">
-        <v>1161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -5805,10 +5805,10 @@
         <v>16652</v>
       </c>
       <c r="C491">
-        <v>4186</v>
+        <v>2964</v>
       </c>
       <c r="D491">
-        <v>4186</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -5827,10 +5827,10 @@
         <v>16659</v>
       </c>
       <c r="C493">
-        <v>1473</v>
+        <v>484</v>
       </c>
       <c r="D493">
-        <v>1473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -5849,10 +5849,10 @@
         <v>16714</v>
       </c>
       <c r="C495">
-        <v>26223</v>
+        <v>26214</v>
       </c>
       <c r="D495">
-        <v>26223</v>
+        <v>26214</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>16757</v>
       </c>
       <c r="C497">
-        <v>1045</v>
+        <v>15</v>
       </c>
       <c r="D497">
-        <v>1045</v>
+        <v>15</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -5893,10 +5893,10 @@
         <v>16760</v>
       </c>
       <c r="C499">
-        <v>1131</v>
+        <v>164</v>
       </c>
       <c r="D499">
-        <v>1131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -5915,10 +5915,10 @@
         <v>16907</v>
       </c>
       <c r="C501">
-        <v>4217</v>
+        <v>3394</v>
       </c>
       <c r="D501">
-        <v>4217</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -5937,10 +5937,10 @@
         <v>17115</v>
       </c>
       <c r="C503">
-        <v>1499</v>
+        <v>522</v>
       </c>
       <c r="D503">
-        <v>1499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -5959,10 +5959,10 @@
         <v>17119</v>
       </c>
       <c r="C505">
-        <v>2079</v>
+        <v>1028</v>
       </c>
       <c r="D505">
-        <v>2079</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -5981,10 +5981,10 @@
         <v>17180</v>
       </c>
       <c r="C507">
-        <v>16341</v>
+        <v>15955</v>
       </c>
       <c r="D507">
-        <v>16341</v>
+        <v>15955</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -6003,10 +6003,10 @@
         <v>17284</v>
       </c>
       <c r="C509">
-        <v>1168</v>
+        <v>290</v>
       </c>
       <c r="D509">
-        <v>1168</v>
+        <v>290</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>17289</v>
       </c>
       <c r="C511">
-        <v>4191</v>
+        <v>2905</v>
       </c>
       <c r="D511">
-        <v>4191</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -6047,10 +6047,10 @@
         <v>17339</v>
       </c>
       <c r="C513">
-        <v>19217</v>
+        <v>18438</v>
       </c>
       <c r="D513">
-        <v>19217</v>
+        <v>18438</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -6069,10 +6069,10 @@
         <v>17364</v>
       </c>
       <c r="C515">
-        <v>1296</v>
+        <v>400</v>
       </c>
       <c r="D515">
-        <v>1296</v>
+        <v>400</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -6091,10 +6091,10 @@
         <v>17426</v>
       </c>
       <c r="C517">
-        <v>2346</v>
+        <v>1451</v>
       </c>
       <c r="D517">
-        <v>2346</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -6113,10 +6113,10 @@
         <v>17468</v>
       </c>
       <c r="C519">
-        <v>1778</v>
+        <v>921</v>
       </c>
       <c r="D519">
-        <v>1778</v>
+        <v>921</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -6135,10 +6135,10 @@
         <v>17572</v>
       </c>
       <c r="C521">
-        <v>5809</v>
+        <v>4848</v>
       </c>
       <c r="D521">
-        <v>5809</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -6157,10 +6157,10 @@
         <v>17629</v>
       </c>
       <c r="C523">
-        <v>9644</v>
+        <v>9425</v>
       </c>
       <c r="D523">
-        <v>9644</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -6179,10 +6179,10 @@
         <v>17673</v>
       </c>
       <c r="C525">
-        <v>3489</v>
+        <v>3308</v>
       </c>
       <c r="D525">
-        <v>3489</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -6201,10 +6201,10 @@
         <v>17722</v>
       </c>
       <c r="C527">
-        <v>6578</v>
+        <v>5322</v>
       </c>
       <c r="D527">
-        <v>6578</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -6234,10 +6234,10 @@
         <v>17742</v>
       </c>
       <c r="C530">
-        <v>2404</v>
+        <v>1598</v>
       </c>
       <c r="D530">
-        <v>2404</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -6245,10 +6245,10 @@
         <v>17743</v>
       </c>
       <c r="C531">
-        <v>3184</v>
+        <v>2425</v>
       </c>
       <c r="D531">
-        <v>3184</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -6267,10 +6267,10 @@
         <v>17843</v>
       </c>
       <c r="C533">
-        <v>6713</v>
+        <v>6088</v>
       </c>
       <c r="D533">
-        <v>6713</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -6289,10 +6289,10 @@
         <v>17861</v>
       </c>
       <c r="C535">
-        <v>2331</v>
+        <v>1593</v>
       </c>
       <c r="D535">
-        <v>2331</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -6311,10 +6311,10 @@
         <v>17918</v>
       </c>
       <c r="C537">
-        <v>706</v>
+        <v>1143</v>
       </c>
       <c r="D537">
-        <v>706</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>17949</v>
       </c>
       <c r="C539">
-        <v>1143</v>
+        <v>211</v>
       </c>
       <c r="D539">
-        <v>1143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -6355,10 +6355,10 @@
         <v>18176</v>
       </c>
       <c r="C541">
-        <v>24761</v>
+        <v>25395</v>
       </c>
       <c r="D541">
-        <v>24761</v>
+        <v>25395</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -6377,10 +6377,10 @@
         <v>18204</v>
       </c>
       <c r="C543">
-        <v>2630</v>
+        <v>1858</v>
       </c>
       <c r="D543">
-        <v>2630</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -6399,10 +6399,10 @@
         <v>18230</v>
       </c>
       <c r="C545">
-        <v>339</v>
+        <v>6692</v>
       </c>
       <c r="D545">
-        <v>339</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -6421,10 +6421,10 @@
         <v>18278</v>
       </c>
       <c r="C547">
-        <v>2363</v>
+        <v>1355</v>
       </c>
       <c r="D547">
-        <v>2363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -6443,10 +6443,10 @@
         <v>18292</v>
       </c>
       <c r="C549">
-        <v>1110</v>
+        <v>108</v>
       </c>
       <c r="D549">
-        <v>1110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -6465,10 +6465,10 @@
         <v>18313</v>
       </c>
       <c r="C551">
-        <v>1536</v>
+        <v>498</v>
       </c>
       <c r="D551">
-        <v>1536</v>
+        <v>498</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -6487,10 +6487,10 @@
         <v>18389</v>
       </c>
       <c r="C553">
-        <v>2515</v>
+        <v>1405</v>
       </c>
       <c r="D553">
-        <v>2515</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -6509,10 +6509,10 @@
         <v>18510</v>
       </c>
       <c r="C555">
-        <v>317</v>
+        <v>5352</v>
       </c>
       <c r="D555">
-        <v>317</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -6531,10 +6531,10 @@
         <v>18514</v>
       </c>
       <c r="C557">
-        <v>3767</v>
+        <v>2989</v>
       </c>
       <c r="D557">
-        <v>3767</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -6553,10 +6553,10 @@
         <v>18693</v>
       </c>
       <c r="C559">
-        <v>1627</v>
+        <v>706</v>
       </c>
       <c r="D559">
-        <v>1627</v>
+        <v>706</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -6575,10 +6575,10 @@
         <v>18709</v>
       </c>
       <c r="C561">
-        <v>7130</v>
+        <v>7158</v>
       </c>
       <c r="D561">
-        <v>7130</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -6597,10 +6597,10 @@
         <v>18739</v>
       </c>
       <c r="C563">
-        <v>1217</v>
+        <v>193</v>
       </c>
       <c r="D563">
-        <v>1217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -6619,10 +6619,10 @@
         <v>18774</v>
       </c>
       <c r="C565">
-        <v>1352</v>
+        <v>326</v>
       </c>
       <c r="D565">
-        <v>1352</v>
+        <v>326</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -6641,10 +6641,10 @@
         <v>18838</v>
       </c>
       <c r="C567">
-        <v>2263</v>
+        <v>1473</v>
       </c>
       <c r="D567">
-        <v>2263</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -6663,10 +6663,10 @@
         <v>18862</v>
       </c>
       <c r="C569">
-        <v>6849</v>
+        <v>6338</v>
       </c>
       <c r="D569">
-        <v>6849</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -6685,10 +6685,10 @@
         <v>18867</v>
       </c>
       <c r="C571">
-        <v>671</v>
+        <v>1631</v>
       </c>
       <c r="D571">
-        <v>671</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -6707,10 +6707,10 @@
         <v>18881</v>
       </c>
       <c r="C573">
-        <v>590</v>
+        <v>6640</v>
       </c>
       <c r="D573">
-        <v>590</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -6729,10 +6729,10 @@
         <v>18941</v>
       </c>
       <c r="C575">
-        <v>1512</v>
+        <v>544</v>
       </c>
       <c r="D575">
-        <v>1512</v>
+        <v>544</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -6751,10 +6751,10 @@
         <v>18952</v>
       </c>
       <c r="C577">
-        <v>3282</v>
+        <v>1129</v>
       </c>
       <c r="D577">
-        <v>3282</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -6773,10 +6773,10 @@
         <v>18965</v>
       </c>
       <c r="C579">
-        <v>1573</v>
+        <v>419</v>
       </c>
       <c r="D579">
-        <v>1573</v>
+        <v>419</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -6795,10 +6795,10 @@
         <v>18995</v>
       </c>
       <c r="C581">
-        <v>16270</v>
+        <v>15451</v>
       </c>
       <c r="D581">
-        <v>16270</v>
+        <v>15451</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -6817,10 +6817,10 @@
         <v>19010</v>
       </c>
       <c r="C583">
-        <v>3075</v>
+        <v>31</v>
       </c>
       <c r="D583">
-        <v>3075</v>
+        <v>31</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -6839,10 +6839,10 @@
         <v>19028</v>
       </c>
       <c r="C585">
-        <v>1063</v>
+        <v>67</v>
       </c>
       <c r="D585">
-        <v>1063</v>
+        <v>67</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -6861,10 +6861,10 @@
         <v>19079</v>
       </c>
       <c r="C587">
-        <v>6734</v>
+        <v>6420</v>
       </c>
       <c r="D587">
-        <v>6734</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -6883,10 +6883,10 @@
         <v>19170</v>
       </c>
       <c r="C589">
-        <v>3022</v>
+        <v>2352</v>
       </c>
       <c r="D589">
-        <v>3022</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -6905,10 +6905,10 @@
         <v>19176</v>
       </c>
       <c r="C591">
-        <v>3539</v>
+        <v>2709</v>
       </c>
       <c r="D591">
-        <v>3539</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -6927,10 +6927,10 @@
         <v>19355</v>
       </c>
       <c r="C593">
-        <v>4047</v>
+        <v>2986</v>
       </c>
       <c r="D593">
-        <v>4047</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>19363</v>
       </c>
       <c r="C595">
-        <v>1545</v>
+        <v>30</v>
       </c>
       <c r="D595">
-        <v>1545</v>
+        <v>30</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -6971,10 +6971,10 @@
         <v>19410</v>
       </c>
       <c r="C597">
-        <v>23473</v>
+        <v>23978</v>
       </c>
       <c r="D597">
-        <v>23473</v>
+        <v>23978</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -6993,10 +6993,10 @@
         <v>19534</v>
       </c>
       <c r="C599">
-        <v>1349</v>
+        <v>247</v>
       </c>
       <c r="D599">
-        <v>1349</v>
+        <v>247</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -7015,10 +7015,10 @@
         <v>19602</v>
       </c>
       <c r="C601">
-        <v>3882</v>
+        <v>2862</v>
       </c>
       <c r="D601">
-        <v>3882</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -7037,10 +7037,10 @@
         <v>19637</v>
       </c>
       <c r="C603">
-        <v>2287</v>
+        <v>1421</v>
       </c>
       <c r="D603">
-        <v>2287</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -7059,10 +7059,10 @@
         <v>19739</v>
       </c>
       <c r="C605">
-        <v>4966</v>
+        <v>4227</v>
       </c>
       <c r="D605">
-        <v>4966</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -7081,10 +7081,10 @@
         <v>19787</v>
       </c>
       <c r="C607">
-        <v>2903</v>
+        <v>2056</v>
       </c>
       <c r="D607">
-        <v>2903</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>19985</v>
       </c>
       <c r="C609">
-        <v>1466</v>
+        <v>398</v>
       </c>
       <c r="D609">
-        <v>1466</v>
+        <v>398</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -7125,10 +7125,10 @@
         <v>20097</v>
       </c>
       <c r="C611">
-        <v>24380</v>
+        <v>24201</v>
       </c>
       <c r="D611">
-        <v>24380</v>
+        <v>24201</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -7147,10 +7147,10 @@
         <v>20111</v>
       </c>
       <c r="C613">
-        <v>1867</v>
+        <v>835</v>
       </c>
       <c r="D613">
-        <v>1867</v>
+        <v>835</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -7169,10 +7169,10 @@
         <v>20175</v>
       </c>
       <c r="C615">
-        <v>12114</v>
+        <v>10705</v>
       </c>
       <c r="D615">
-        <v>12114</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -7191,10 +7191,10 @@
         <v>20207</v>
       </c>
       <c r="C617">
-        <v>2106</v>
+        <v>1351</v>
       </c>
       <c r="D617">
-        <v>2106</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -7213,10 +7213,10 @@
         <v>20217</v>
       </c>
       <c r="C619">
-        <v>1960</v>
+        <v>1225</v>
       </c>
       <c r="D619">
-        <v>1960</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -7235,10 +7235,10 @@
         <v>20227</v>
       </c>
       <c r="C621">
-        <v>5291</v>
+        <v>4632</v>
       </c>
       <c r="D621">
-        <v>5291</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -7257,10 +7257,10 @@
         <v>20401</v>
       </c>
       <c r="C623">
-        <v>1035</v>
+        <v>13</v>
       </c>
       <c r="D623">
-        <v>1035</v>
+        <v>13</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -7279,10 +7279,10 @@
         <v>20440</v>
       </c>
       <c r="C625">
-        <v>4925</v>
+        <v>4478</v>
       </c>
       <c r="D625">
-        <v>4925</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -7301,10 +7301,10 @@
         <v>20468</v>
       </c>
       <c r="C627">
-        <v>4566</v>
+        <v>4258</v>
       </c>
       <c r="D627">
-        <v>4566</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -7323,10 +7323,10 @@
         <v>20482</v>
       </c>
       <c r="C629">
-        <v>2435</v>
+        <v>1917</v>
       </c>
       <c r="D629">
-        <v>2435</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -7345,10 +7345,10 @@
         <v>20501</v>
       </c>
       <c r="C631">
-        <v>6993</v>
+        <v>6668</v>
       </c>
       <c r="D631">
-        <v>6993</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -7367,10 +7367,10 @@
         <v>20595</v>
       </c>
       <c r="C633">
-        <v>1332</v>
+        <v>394</v>
       </c>
       <c r="D633">
-        <v>1332</v>
+        <v>394</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -7389,10 +7389,10 @@
         <v>20614</v>
       </c>
       <c r="C635">
-        <v>1307</v>
+        <v>225</v>
       </c>
       <c r="D635">
-        <v>1307</v>
+        <v>225</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -7411,10 +7411,10 @@
         <v>20621</v>
       </c>
       <c r="C637">
-        <v>1478</v>
+        <v>529</v>
       </c>
       <c r="D637">
-        <v>1478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -7433,10 +7433,10 @@
         <v>20679</v>
       </c>
       <c r="C639">
-        <v>7920</v>
+        <v>7239</v>
       </c>
       <c r="D639">
-        <v>7920</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -7455,10 +7455,10 @@
         <v>20701</v>
       </c>
       <c r="C641">
-        <v>3480</v>
+        <v>1365</v>
       </c>
       <c r="D641">
-        <v>3480</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -7477,10 +7477,10 @@
         <v>20781</v>
       </c>
       <c r="C643">
-        <v>3744</v>
+        <v>2969</v>
       </c>
       <c r="D643">
-        <v>3744</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -7499,10 +7499,10 @@
         <v>20785</v>
       </c>
       <c r="C645">
-        <v>3914</v>
+        <v>2186</v>
       </c>
       <c r="D645">
-        <v>3914</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -7521,10 +7521,10 @@
         <v>20789</v>
       </c>
       <c r="C647">
-        <v>561</v>
+        <v>5909</v>
       </c>
       <c r="D647">
-        <v>561</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -7543,10 +7543,10 @@
         <v>20838</v>
       </c>
       <c r="C649">
-        <v>3980</v>
+        <v>3072</v>
       </c>
       <c r="D649">
-        <v>3980</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -7565,10 +7565,10 @@
         <v>21051</v>
       </c>
       <c r="C651">
-        <v>2339</v>
+        <v>1084</v>
       </c>
       <c r="D651">
-        <v>2339</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -7587,10 +7587,10 @@
         <v>21229</v>
       </c>
       <c r="C653">
-        <v>4593</v>
+        <v>4251</v>
       </c>
       <c r="D653">
-        <v>4593</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -7609,10 +7609,10 @@
         <v>21232</v>
       </c>
       <c r="C655">
-        <v>14238</v>
+        <v>13532</v>
       </c>
       <c r="D655">
-        <v>14238</v>
+        <v>13532</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -7631,10 +7631,10 @@
         <v>21312</v>
       </c>
       <c r="C657">
-        <v>2409</v>
+        <v>1485</v>
       </c>
       <c r="D657">
-        <v>2409</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -7653,10 +7653,10 @@
         <v>21417</v>
       </c>
       <c r="C659">
-        <v>13126</v>
+        <v>12710</v>
       </c>
       <c r="D659">
-        <v>13126</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -7675,10 +7675,10 @@
         <v>21499</v>
       </c>
       <c r="C661">
-        <v>1068</v>
+        <v>70</v>
       </c>
       <c r="D661">
-        <v>1068</v>
+        <v>70</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -7697,10 +7697,10 @@
         <v>21560</v>
       </c>
       <c r="C663">
-        <v>3409</v>
+        <v>2403</v>
       </c>
       <c r="D663">
-        <v>3409</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -7730,10 +7730,10 @@
         <v>21634</v>
       </c>
       <c r="C666">
-        <v>1579</v>
+        <v>528</v>
       </c>
       <c r="D666">
-        <v>1579</v>
+        <v>528</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -7741,10 +7741,10 @@
         <v>21635</v>
       </c>
       <c r="C667">
-        <v>1062</v>
+        <v>63</v>
       </c>
       <c r="D667">
-        <v>1062</v>
+        <v>63</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -7763,10 +7763,10 @@
         <v>21684</v>
       </c>
       <c r="C669">
-        <v>3207</v>
+        <v>2260</v>
       </c>
       <c r="D669">
-        <v>3207</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -7785,10 +7785,10 @@
         <v>21695</v>
       </c>
       <c r="C671">
-        <v>2268</v>
+        <v>898</v>
       </c>
       <c r="D671">
-        <v>2268</v>
+        <v>898</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -7807,10 +7807,10 @@
         <v>21737</v>
       </c>
       <c r="C673">
-        <v>6366</v>
+        <v>6340</v>
       </c>
       <c r="D673">
-        <v>6366</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -7829,10 +7829,10 @@
         <v>21772</v>
       </c>
       <c r="C675">
-        <v>1274</v>
+        <v>219</v>
       </c>
       <c r="D675">
-        <v>1274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>4489</v>
       </c>
       <c r="C677">
-        <v>1561</v>
+        <v>748</v>
       </c>
       <c r="D677">
-        <v>3025</v>
+        <v>2618.5</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -7865,10 +7865,10 @@
         <v>21935</v>
       </c>
       <c r="C678">
-        <v>4873</v>
+        <v>4259</v>
       </c>
       <c r="D678">
-        <v>4873</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -7887,10 +7887,10 @@
         <v>22236</v>
       </c>
       <c r="C680">
-        <v>2163</v>
+        <v>1146</v>
       </c>
       <c r="D680">
-        <v>2163</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -7909,10 +7909,10 @@
         <v>22256</v>
       </c>
       <c r="C682">
-        <v>1288</v>
+        <v>256</v>
       </c>
       <c r="D682">
-        <v>1288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -7931,10 +7931,10 @@
         <v>22290</v>
       </c>
       <c r="C684">
-        <v>11515</v>
+        <v>11608</v>
       </c>
       <c r="D684">
-        <v>11515</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -7953,10 +7953,10 @@
         <v>22436</v>
       </c>
       <c r="C686">
-        <v>28727</v>
+        <v>28693</v>
       </c>
       <c r="D686">
-        <v>28727</v>
+        <v>28693</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -7975,10 +7975,10 @@
         <v>22461</v>
       </c>
       <c r="C688">
-        <v>9128</v>
+        <v>8233</v>
       </c>
       <c r="D688">
-        <v>9128</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -7997,10 +7997,10 @@
         <v>22476</v>
       </c>
       <c r="C690">
-        <v>1272</v>
+        <v>202</v>
       </c>
       <c r="D690">
-        <v>1272</v>
+        <v>202</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -8019,10 +8019,10 @@
         <v>22481</v>
       </c>
       <c r="C692">
-        <v>1494</v>
+        <v>598</v>
       </c>
       <c r="D692">
-        <v>1494</v>
+        <v>598</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -8041,10 +8041,10 @@
         <v>22586</v>
       </c>
       <c r="C694">
-        <v>30</v>
+        <v>9912</v>
       </c>
       <c r="D694">
-        <v>30</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -8063,10 +8063,10 @@
         <v>22614</v>
       </c>
       <c r="C696">
-        <v>6896</v>
+        <v>6880</v>
       </c>
       <c r="D696">
-        <v>6896</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -8085,10 +8085,10 @@
         <v>22724</v>
       </c>
       <c r="C698">
-        <v>669</v>
+        <v>1642</v>
       </c>
       <c r="D698">
-        <v>669</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -8107,10 +8107,10 @@
         <v>22732</v>
       </c>
       <c r="C700">
-        <v>1382</v>
+        <v>249</v>
       </c>
       <c r="D700">
-        <v>1382</v>
+        <v>249</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -8129,10 +8129,10 @@
         <v>22804</v>
       </c>
       <c r="C702">
-        <v>47</v>
+        <v>9129</v>
       </c>
       <c r="D702">
-        <v>47</v>
+        <v>9129</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -8151,10 +8151,10 @@
         <v>22930</v>
       </c>
       <c r="C704">
-        <v>1089</v>
+        <v>96</v>
       </c>
       <c r="D704">
-        <v>1089</v>
+        <v>96</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -8173,10 +8173,10 @@
         <v>23140</v>
       </c>
       <c r="C706">
-        <v>2525</v>
+        <v>1508</v>
       </c>
       <c r="D706">
-        <v>2525</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -8195,10 +8195,10 @@
         <v>23162</v>
       </c>
       <c r="C708">
-        <v>1416</v>
+        <v>426</v>
       </c>
       <c r="D708">
-        <v>1416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -8217,10 +8217,10 @@
         <v>23179</v>
       </c>
       <c r="C710">
-        <v>9446</v>
+        <v>9197</v>
       </c>
       <c r="D710">
-        <v>9446</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -8239,10 +8239,10 @@
         <v>23186</v>
       </c>
       <c r="C712">
-        <v>1314</v>
+        <v>315</v>
       </c>
       <c r="D712">
-        <v>1314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -8261,10 +8261,10 @@
         <v>23233</v>
       </c>
       <c r="C714">
-        <v>3603</v>
+        <v>2861</v>
       </c>
       <c r="D714">
-        <v>3603</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -8283,10 +8283,10 @@
         <v>23242</v>
       </c>
       <c r="C716">
-        <v>1262</v>
+        <v>161</v>
       </c>
       <c r="D716">
-        <v>1262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -8305,10 +8305,10 @@
         <v>23245</v>
       </c>
       <c r="C718">
-        <v>1156</v>
+        <v>159</v>
       </c>
       <c r="D718">
-        <v>1156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -8327,10 +8327,10 @@
         <v>23264</v>
       </c>
       <c r="C720">
-        <v>23004</v>
+        <v>23975</v>
       </c>
       <c r="D720">
-        <v>23004</v>
+        <v>23975</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -8349,10 +8349,10 @@
         <v>23267</v>
       </c>
       <c r="C722">
-        <v>1066</v>
+        <v>69</v>
       </c>
       <c r="D722">
-        <v>1066</v>
+        <v>69</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -8371,10 +8371,10 @@
         <v>23311</v>
       </c>
       <c r="C724">
-        <v>3832</v>
+        <v>4575</v>
       </c>
       <c r="D724">
-        <v>3832</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -8393,10 +8393,10 @@
         <v>23377</v>
       </c>
       <c r="C726">
-        <v>8326</v>
+        <v>7904</v>
       </c>
       <c r="D726">
-        <v>8326</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -8415,10 +8415,10 @@
         <v>23414</v>
       </c>
       <c r="C728">
-        <v>1344</v>
+        <v>374</v>
       </c>
       <c r="D728">
-        <v>1344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -8437,10 +8437,10 @@
         <v>23511</v>
       </c>
       <c r="C730">
-        <v>3801</v>
+        <v>2578</v>
       </c>
       <c r="D730">
-        <v>3801</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -8459,10 +8459,10 @@
         <v>23514</v>
       </c>
       <c r="C732">
-        <v>2678</v>
+        <v>1772</v>
       </c>
       <c r="D732">
-        <v>2678</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -8481,10 +8481,10 @@
         <v>23654</v>
       </c>
       <c r="C734">
-        <v>2355</v>
+        <v>1358</v>
       </c>
       <c r="D734">
-        <v>2355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -8503,10 +8503,10 @@
         <v>23657</v>
       </c>
       <c r="C736">
-        <v>296</v>
+        <v>1617</v>
       </c>
       <c r="D736">
-        <v>296</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -8525,10 +8525,10 @@
         <v>23827</v>
       </c>
       <c r="C738">
-        <v>28556</v>
+        <v>28629</v>
       </c>
       <c r="D738">
-        <v>28556</v>
+        <v>28629</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -8547,10 +8547,10 @@
         <v>23923</v>
       </c>
       <c r="C740">
-        <v>3263</v>
+        <v>3506</v>
       </c>
       <c r="D740">
-        <v>3263</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -8569,10 +8569,10 @@
         <v>24006</v>
       </c>
       <c r="C742">
-        <v>1091</v>
+        <v>97</v>
       </c>
       <c r="D742">
-        <v>1091</v>
+        <v>97</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -8591,10 +8591,10 @@
         <v>24021</v>
       </c>
       <c r="C744">
-        <v>1169</v>
+        <v>147</v>
       </c>
       <c r="D744">
-        <v>1169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -8613,10 +8613,10 @@
         <v>24174</v>
       </c>
       <c r="C746">
-        <v>2159</v>
+        <v>1113</v>
       </c>
       <c r="D746">
-        <v>2159</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -8635,10 +8635,10 @@
         <v>24223</v>
       </c>
       <c r="C748">
-        <v>1101</v>
+        <v>109</v>
       </c>
       <c r="D748">
-        <v>1101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -8657,10 +8657,10 @@
         <v>24236</v>
       </c>
       <c r="C750">
-        <v>2806</v>
+        <v>1979</v>
       </c>
       <c r="D750">
-        <v>2806</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -8679,10 +8679,10 @@
         <v>24390</v>
       </c>
       <c r="C752">
-        <v>6139</v>
+        <v>5708</v>
       </c>
       <c r="D752">
-        <v>6139</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -8701,10 +8701,10 @@
         <v>24499</v>
       </c>
       <c r="C754">
-        <v>20640</v>
+        <v>21151</v>
       </c>
       <c r="D754">
-        <v>20640</v>
+        <v>21151</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -8723,10 +8723,10 @@
         <v>24524</v>
       </c>
       <c r="C756">
-        <v>3927</v>
+        <v>3063</v>
       </c>
       <c r="D756">
-        <v>3927</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -8745,10 +8745,10 @@
         <v>24532</v>
       </c>
       <c r="C758">
-        <v>611</v>
+        <v>3128</v>
       </c>
       <c r="D758">
-        <v>611</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -8767,10 +8767,10 @@
         <v>24573</v>
       </c>
       <c r="C760">
-        <v>2677</v>
+        <v>1708</v>
       </c>
       <c r="D760">
-        <v>2677</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -8789,10 +8789,10 @@
         <v>24594</v>
       </c>
       <c r="C762">
-        <v>4769</v>
+        <v>4081</v>
       </c>
       <c r="D762">
-        <v>4769</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -8811,10 +8811,10 @@
         <v>24667</v>
       </c>
       <c r="C764">
-        <v>2794</v>
+        <v>880</v>
       </c>
       <c r="D764">
-        <v>2794</v>
+        <v>880</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -8833,10 +8833,10 @@
         <v>24738</v>
       </c>
       <c r="C766">
-        <v>2251</v>
+        <v>1163</v>
       </c>
       <c r="D766">
-        <v>2251</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -8855,10 +8855,10 @@
         <v>24782</v>
       </c>
       <c r="C768">
-        <v>2064</v>
+        <v>979</v>
       </c>
       <c r="D768">
-        <v>2064</v>
+        <v>979</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -8877,10 +8877,10 @@
         <v>24793</v>
       </c>
       <c r="C770">
-        <v>2721</v>
+        <v>1739</v>
       </c>
       <c r="D770">
-        <v>2721</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -8899,10 +8899,10 @@
         <v>25035</v>
       </c>
       <c r="C772">
-        <v>1275</v>
+        <v>200</v>
       </c>
       <c r="D772">
-        <v>1275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -8921,10 +8921,10 @@
         <v>25186</v>
       </c>
       <c r="C774">
-        <v>2612</v>
+        <v>1777</v>
       </c>
       <c r="D774">
-        <v>2612</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -8943,10 +8943,10 @@
         <v>25231</v>
       </c>
       <c r="C776">
-        <v>6599</v>
+        <v>5836</v>
       </c>
       <c r="D776">
-        <v>6599</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -8965,10 +8965,10 @@
         <v>25287</v>
       </c>
       <c r="C778">
-        <v>2209</v>
+        <v>1259</v>
       </c>
       <c r="D778">
-        <v>2209</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -8987,10 +8987,10 @@
         <v>25415</v>
       </c>
       <c r="C780">
-        <v>5717</v>
+        <v>5016</v>
       </c>
       <c r="D780">
-        <v>5717</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -9009,10 +9009,10 @@
         <v>25427</v>
       </c>
       <c r="C782">
-        <v>111</v>
+        <v>4159</v>
       </c>
       <c r="D782">
-        <v>111</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -9031,10 +9031,10 @@
         <v>25438</v>
       </c>
       <c r="C784">
-        <v>2201</v>
+        <v>1278</v>
       </c>
       <c r="D784">
-        <v>2201</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -9056,10 +9056,10 @@
         <v>6747</v>
       </c>
       <c r="C786">
-        <v>4557</v>
+        <v>4670</v>
       </c>
       <c r="D786">
-        <v>5652</v>
+        <v>5708.5</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -9067,10 +9067,10 @@
         <v>25570</v>
       </c>
       <c r="C787">
-        <v>7309</v>
+        <v>6954</v>
       </c>
       <c r="D787">
-        <v>7309</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -9089,10 +9089,10 @@
         <v>25608</v>
       </c>
       <c r="C789">
-        <v>1032</v>
+        <v>10</v>
       </c>
       <c r="D789">
-        <v>1032</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -9111,10 +9111,10 @@
         <v>25618</v>
       </c>
       <c r="C791">
-        <v>1158</v>
+        <v>173</v>
       </c>
       <c r="D791">
-        <v>1158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -9133,10 +9133,10 @@
         <v>25693</v>
       </c>
       <c r="C793">
-        <v>1389</v>
+        <v>485</v>
       </c>
       <c r="D793">
-        <v>1389</v>
+        <v>485</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -9155,10 +9155,10 @@
         <v>25806</v>
       </c>
       <c r="C795">
-        <v>1098</v>
+        <v>104</v>
       </c>
       <c r="D795">
-        <v>1098</v>
+        <v>104</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>3815</v>
       </c>
       <c r="C797">
-        <v>688</v>
+        <v>4126</v>
       </c>
       <c r="D797">
-        <v>2251.5</v>
+        <v>3970.5</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -9191,10 +9191,10 @@
         <v>25882</v>
       </c>
       <c r="C798">
-        <v>4696</v>
+        <v>3783</v>
       </c>
       <c r="D798">
-        <v>4696</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -9213,10 +9213,10 @@
         <v>25887</v>
       </c>
       <c r="C800">
-        <v>1053</v>
+        <v>54</v>
       </c>
       <c r="D800">
-        <v>1053</v>
+        <v>54</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -9235,10 +9235,10 @@
         <v>26000</v>
       </c>
       <c r="C802">
-        <v>1297</v>
+        <v>259</v>
       </c>
       <c r="D802">
-        <v>1297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -9257,10 +9257,10 @@
         <v>26044</v>
       </c>
       <c r="C804">
-        <v>3115</v>
+        <v>2433</v>
       </c>
       <c r="D804">
-        <v>3115</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -9279,10 +9279,10 @@
         <v>26099</v>
       </c>
       <c r="C806">
-        <v>1426</v>
+        <v>335</v>
       </c>
       <c r="D806">
-        <v>1426</v>
+        <v>335</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -9301,10 +9301,10 @@
         <v>26199</v>
       </c>
       <c r="C808">
-        <v>13986</v>
+        <v>14370</v>
       </c>
       <c r="D808">
-        <v>13986</v>
+        <v>14370</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -9323,10 +9323,10 @@
         <v>26221</v>
       </c>
       <c r="C810">
-        <v>1496</v>
+        <v>37</v>
       </c>
       <c r="D810">
-        <v>1496</v>
+        <v>37</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -9345,10 +9345,10 @@
         <v>26271</v>
       </c>
       <c r="C812">
-        <v>4067</v>
+        <v>2870</v>
       </c>
       <c r="D812">
-        <v>4067</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -9367,10 +9367,10 @@
         <v>26304</v>
       </c>
       <c r="C814">
-        <v>79</v>
+        <v>5673</v>
       </c>
       <c r="D814">
-        <v>79</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -9389,10 +9389,10 @@
         <v>26377</v>
       </c>
       <c r="C816">
-        <v>36163</v>
+        <v>36099</v>
       </c>
       <c r="D816">
-        <v>36163</v>
+        <v>36099</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -9411,10 +9411,10 @@
         <v>26423</v>
       </c>
       <c r="C818">
-        <v>1076</v>
+        <v>84</v>
       </c>
       <c r="D818">
-        <v>1076</v>
+        <v>84</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -9433,10 +9433,10 @@
         <v>26448</v>
       </c>
       <c r="C820">
-        <v>5773</v>
+        <v>5258</v>
       </c>
       <c r="D820">
-        <v>5773</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -9455,10 +9455,10 @@
         <v>26495</v>
       </c>
       <c r="C822">
-        <v>657</v>
+        <v>13219</v>
       </c>
       <c r="D822">
-        <v>657</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -9480,10 +9480,10 @@
         <v>156</v>
       </c>
       <c r="C824">
-        <v>1689</v>
+        <v>759</v>
       </c>
       <c r="D824">
-        <v>922.5</v>
+        <v>457.5</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -9491,10 +9491,10 @@
         <v>26508</v>
       </c>
       <c r="C825">
-        <v>1324</v>
+        <v>239</v>
       </c>
       <c r="D825">
-        <v>1324</v>
+        <v>239</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -9513,10 +9513,10 @@
         <v>26517</v>
       </c>
       <c r="C827">
-        <v>1157</v>
+        <v>188</v>
       </c>
       <c r="D827">
-        <v>1157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -9535,10 +9535,10 @@
         <v>26556</v>
       </c>
       <c r="C829">
-        <v>1190</v>
+        <v>353</v>
       </c>
       <c r="D829">
-        <v>1190</v>
+        <v>353</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -9557,10 +9557,10 @@
         <v>26696</v>
       </c>
       <c r="C831">
-        <v>1594</v>
+        <v>545</v>
       </c>
       <c r="D831">
-        <v>1594</v>
+        <v>545</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -9579,10 +9579,10 @@
         <v>26783</v>
       </c>
       <c r="C833">
-        <v>16548</v>
+        <v>16250</v>
       </c>
       <c r="D833">
-        <v>16548</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -9601,10 +9601,10 @@
         <v>26956</v>
       </c>
       <c r="C835">
-        <v>9998</v>
+        <v>9648</v>
       </c>
       <c r="D835">
-        <v>9998</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -9623,10 +9623,10 @@
         <v>26975</v>
       </c>
       <c r="C837">
-        <v>1128</v>
+        <v>145</v>
       </c>
       <c r="D837">
-        <v>1128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -9645,10 +9645,10 @@
         <v>27188</v>
       </c>
       <c r="C839">
-        <v>10790</v>
+        <v>9978</v>
       </c>
       <c r="D839">
-        <v>10790</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -9667,10 +9667,10 @@
         <v>27194</v>
       </c>
       <c r="C841">
-        <v>1643</v>
+        <v>344</v>
       </c>
       <c r="D841">
-        <v>1643</v>
+        <v>344</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -9689,10 +9689,10 @@
         <v>27310</v>
       </c>
       <c r="C843">
-        <v>1199</v>
+        <v>243</v>
       </c>
       <c r="D843">
-        <v>1199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -9711,10 +9711,10 @@
         <v>27380</v>
       </c>
       <c r="C845">
-        <v>2464</v>
+        <v>1613</v>
       </c>
       <c r="D845">
-        <v>2464</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -9733,10 +9733,10 @@
         <v>27478</v>
       </c>
       <c r="C847">
-        <v>20695</v>
+        <v>20007</v>
       </c>
       <c r="D847">
-        <v>20695</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -9755,10 +9755,10 @@
         <v>27491</v>
       </c>
       <c r="C849">
-        <v>2674</v>
+        <v>1961</v>
       </c>
       <c r="D849">
-        <v>2674</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -9777,10 +9777,10 @@
         <v>27562</v>
       </c>
       <c r="C851">
-        <v>3785</v>
+        <v>2816</v>
       </c>
       <c r="D851">
-        <v>3785</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -9799,10 +9799,10 @@
         <v>27576</v>
       </c>
       <c r="C853">
-        <v>1978</v>
+        <v>751</v>
       </c>
       <c r="D853">
-        <v>1978</v>
+        <v>751</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -9821,10 +9821,10 @@
         <v>27615</v>
       </c>
       <c r="C855">
-        <v>6224</v>
+        <v>5246</v>
       </c>
       <c r="D855">
-        <v>6224</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -9843,10 +9843,10 @@
         <v>27629</v>
       </c>
       <c r="C857">
-        <v>441</v>
+        <v>5271</v>
       </c>
       <c r="D857">
-        <v>441</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -9865,10 +9865,10 @@
         <v>27663</v>
       </c>
       <c r="C859">
-        <v>1214</v>
+        <v>212</v>
       </c>
       <c r="D859">
-        <v>1214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -9887,10 +9887,10 @@
         <v>27704</v>
       </c>
       <c r="C861">
-        <v>1090</v>
+        <v>102</v>
       </c>
       <c r="D861">
-        <v>1090</v>
+        <v>102</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -9909,10 +9909,10 @@
         <v>27723</v>
       </c>
       <c r="C863">
-        <v>2065</v>
+        <v>871</v>
       </c>
       <c r="D863">
-        <v>2065</v>
+        <v>871</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -9931,10 +9931,10 @@
         <v>27838</v>
       </c>
       <c r="C865">
-        <v>1070</v>
+        <v>78</v>
       </c>
       <c r="D865">
-        <v>1070</v>
+        <v>78</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -9964,10 +9964,10 @@
         <v>28058</v>
       </c>
       <c r="C868">
-        <v>5400</v>
+        <v>4812</v>
       </c>
       <c r="D868">
-        <v>5400</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -9975,10 +9975,10 @@
         <v>28059</v>
       </c>
       <c r="C869">
-        <v>4773</v>
+        <v>3579</v>
       </c>
       <c r="D869">
-        <v>4773</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -9997,10 +9997,10 @@
         <v>28133</v>
       </c>
       <c r="C871">
-        <v>58</v>
+        <v>8206</v>
       </c>
       <c r="D871">
-        <v>58</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -10019,10 +10019,10 @@
         <v>28173</v>
       </c>
       <c r="C873">
-        <v>1044</v>
+        <v>16</v>
       </c>
       <c r="D873">
-        <v>1044</v>
+        <v>16</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -10041,10 +10041,10 @@
         <v>28309</v>
       </c>
       <c r="C875">
-        <v>5578</v>
+        <v>4597</v>
       </c>
       <c r="D875">
-        <v>5578</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -10063,10 +10063,10 @@
         <v>28350</v>
       </c>
       <c r="C877">
-        <v>1937</v>
+        <v>832</v>
       </c>
       <c r="D877">
-        <v>1937</v>
+        <v>832</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -10085,10 +10085,10 @@
         <v>28438</v>
       </c>
       <c r="C879">
-        <v>1657</v>
+        <v>721</v>
       </c>
       <c r="D879">
-        <v>1657</v>
+        <v>721</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -10107,10 +10107,10 @@
         <v>28448</v>
       </c>
       <c r="C881">
-        <v>92</v>
+        <v>10780</v>
       </c>
       <c r="D881">
-        <v>92</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -10129,10 +10129,10 @@
         <v>28487</v>
       </c>
       <c r="C883">
-        <v>975</v>
+        <v>1186</v>
       </c>
       <c r="D883">
-        <v>975</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -10151,10 +10151,10 @@
         <v>28779</v>
       </c>
       <c r="C885">
-        <v>2864</v>
+        <v>2289</v>
       </c>
       <c r="D885">
-        <v>2864</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -10173,10 +10173,10 @@
         <v>28784</v>
       </c>
       <c r="C887">
-        <v>1025</v>
+        <v>6</v>
       </c>
       <c r="D887">
-        <v>1025</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -10195,10 +10195,10 @@
         <v>28794</v>
       </c>
       <c r="C889">
-        <v>1117</v>
+        <v>119</v>
       </c>
       <c r="D889">
-        <v>1117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -10217,10 +10217,10 @@
         <v>28808</v>
       </c>
       <c r="C891">
-        <v>12457</v>
+        <v>11965</v>
       </c>
       <c r="D891">
-        <v>12457</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -10239,10 +10239,10 @@
         <v>28851</v>
       </c>
       <c r="C893">
-        <v>2870</v>
+        <v>2335</v>
       </c>
       <c r="D893">
-        <v>2870</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -10261,10 +10261,10 @@
         <v>28868</v>
       </c>
       <c r="C895">
-        <v>7491</v>
+        <v>7448</v>
       </c>
       <c r="D895">
-        <v>7491</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -10283,10 +10283,10 @@
         <v>28897</v>
       </c>
       <c r="C897">
-        <v>1470</v>
+        <v>397</v>
       </c>
       <c r="D897">
-        <v>1470</v>
+        <v>397</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -10305,10 +10305,10 @@
         <v>29256</v>
       </c>
       <c r="C899">
-        <v>1112</v>
+        <v>127</v>
       </c>
       <c r="D899">
-        <v>1112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -10327,10 +10327,10 @@
         <v>29359</v>
       </c>
       <c r="C901">
-        <v>1083</v>
+        <v>75</v>
       </c>
       <c r="D901">
-        <v>1083</v>
+        <v>75</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -10349,10 +10349,10 @@
         <v>29434</v>
       </c>
       <c r="C903">
-        <v>3819</v>
+        <v>2679</v>
       </c>
       <c r="D903">
-        <v>3819</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -10374,10 +10374,10 @@
         <v>1972</v>
       </c>
       <c r="C905">
-        <v>8365</v>
+        <v>7680</v>
       </c>
       <c r="D905">
-        <v>5168.5</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -10385,10 +10385,10 @@
         <v>29518</v>
       </c>
       <c r="C906">
-        <v>4185</v>
+        <v>1249</v>
       </c>
       <c r="D906">
-        <v>4185</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -10407,10 +10407,10 @@
         <v>29561</v>
       </c>
       <c r="C908">
-        <v>1469</v>
+        <v>378</v>
       </c>
       <c r="D908">
-        <v>1469</v>
+        <v>378</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -10429,10 +10429,10 @@
         <v>29624</v>
       </c>
       <c r="C910">
-        <v>1261</v>
+        <v>163</v>
       </c>
       <c r="D910">
-        <v>1261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -10451,10 +10451,10 @@
         <v>29666</v>
       </c>
       <c r="C912">
-        <v>2664</v>
+        <v>1851</v>
       </c>
       <c r="D912">
-        <v>2664</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -10473,10 +10473,10 @@
         <v>29670</v>
       </c>
       <c r="C914">
-        <v>1069</v>
+        <v>73</v>
       </c>
       <c r="D914">
-        <v>1069</v>
+        <v>73</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -10495,10 +10495,10 @@
         <v>29690</v>
       </c>
       <c r="C916">
-        <v>2855</v>
+        <v>1728</v>
       </c>
       <c r="D916">
-        <v>2855</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -10517,10 +10517,10 @@
         <v>29721</v>
       </c>
       <c r="C918">
-        <v>2002</v>
+        <v>1300</v>
       </c>
       <c r="D918">
-        <v>2002</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -10539,10 +10539,10 @@
         <v>29918</v>
       </c>
       <c r="C920">
-        <v>5312</v>
+        <v>5616</v>
       </c>
       <c r="D920">
-        <v>5312</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -10561,10 +10561,10 @@
         <v>29923</v>
       </c>
       <c r="C922">
-        <v>7361</v>
+        <v>7363</v>
       </c>
       <c r="D922">
-        <v>7361</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -10583,10 +10583,10 @@
         <v>30058</v>
       </c>
       <c r="C924">
-        <v>4467</v>
+        <v>3679</v>
       </c>
       <c r="D924">
-        <v>4467</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -10605,10 +10605,10 @@
         <v>30072</v>
       </c>
       <c r="C926">
-        <v>11095</v>
+        <v>10943</v>
       </c>
       <c r="D926">
-        <v>11095</v>
+        <v>10943</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -10627,10 +10627,10 @@
         <v>30150</v>
       </c>
       <c r="C928">
-        <v>4285</v>
+        <v>3282</v>
       </c>
       <c r="D928">
-        <v>4285</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -10649,10 +10649,10 @@
         <v>30382</v>
       </c>
       <c r="C930">
-        <v>199</v>
+        <v>5737</v>
       </c>
       <c r="D930">
-        <v>199</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -10671,10 +10671,10 @@
         <v>30389</v>
       </c>
       <c r="C932">
-        <v>9391</v>
+        <v>9145</v>
       </c>
       <c r="D932">
-        <v>9391</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -10693,10 +10693,10 @@
         <v>30421</v>
       </c>
       <c r="C934">
-        <v>2896</v>
+        <v>2048</v>
       </c>
       <c r="D934">
-        <v>2896</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -10715,10 +10715,10 @@
         <v>30448</v>
       </c>
       <c r="C936">
-        <v>1415</v>
+        <v>277</v>
       </c>
       <c r="D936">
-        <v>1415</v>
+        <v>277</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -10737,10 +10737,10 @@
         <v>30592</v>
       </c>
       <c r="C938">
-        <v>11108</v>
+        <v>11703</v>
       </c>
       <c r="D938">
-        <v>11108</v>
+        <v>11703</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -10759,10 +10759,10 @@
         <v>30601</v>
       </c>
       <c r="C940">
-        <v>1115</v>
+        <v>125</v>
       </c>
       <c r="D940">
-        <v>1115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="941" spans="1:4">
@@ -10781,10 +10781,10 @@
         <v>30667</v>
       </c>
       <c r="C942">
-        <v>3160</v>
+        <v>2800</v>
       </c>
       <c r="D942">
-        <v>3160</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -10803,10 +10803,10 @@
         <v>30686</v>
       </c>
       <c r="C944">
-        <v>1464</v>
+        <v>60</v>
       </c>
       <c r="D944">
-        <v>1464</v>
+        <v>60</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -10825,10 +10825,10 @@
         <v>30696</v>
       </c>
       <c r="C946">
-        <v>1752</v>
+        <v>1000</v>
       </c>
       <c r="D946">
-        <v>1752</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -10847,10 +10847,10 @@
         <v>30786</v>
       </c>
       <c r="C948">
-        <v>13409</v>
+        <v>13142</v>
       </c>
       <c r="D948">
-        <v>13409</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -10869,10 +10869,10 @@
         <v>30930</v>
       </c>
       <c r="C950">
-        <v>4936</v>
+        <v>4446</v>
       </c>
       <c r="D950">
-        <v>4936</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -10891,10 +10891,10 @@
         <v>30990</v>
       </c>
       <c r="C952">
-        <v>9505</v>
+        <v>9705</v>
       </c>
       <c r="D952">
-        <v>9505</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -10913,10 +10913,10 @@
         <v>30997</v>
       </c>
       <c r="C954">
-        <v>1531</v>
+        <v>449</v>
       </c>
       <c r="D954">
-        <v>1531</v>
+        <v>449</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -10935,10 +10935,10 @@
         <v>31024</v>
       </c>
       <c r="C956">
-        <v>9026</v>
+        <v>8954</v>
       </c>
       <c r="D956">
-        <v>9026</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -10957,10 +10957,10 @@
         <v>31120</v>
       </c>
       <c r="C958">
-        <v>9918</v>
+        <v>10038</v>
       </c>
       <c r="D958">
-        <v>9918</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -10979,10 +10979,10 @@
         <v>31252</v>
       </c>
       <c r="C960">
-        <v>1072</v>
+        <v>82</v>
       </c>
       <c r="D960">
-        <v>1072</v>
+        <v>82</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -11001,10 +11001,10 @@
         <v>31285</v>
       </c>
       <c r="C962">
-        <v>3557</v>
+        <v>2747</v>
       </c>
       <c r="D962">
-        <v>3557</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -11023,10 +11023,10 @@
         <v>31315</v>
       </c>
       <c r="C964">
-        <v>1277</v>
+        <v>198</v>
       </c>
       <c r="D964">
-        <v>1277</v>
+        <v>198</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -11045,10 +11045,10 @@
         <v>31380</v>
       </c>
       <c r="C966">
-        <v>209</v>
+        <v>5307</v>
       </c>
       <c r="D966">
-        <v>209</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -11067,10 +11067,10 @@
         <v>31455</v>
       </c>
       <c r="C968">
-        <v>3499</v>
+        <v>3203</v>
       </c>
       <c r="D968">
-        <v>3499</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -11089,10 +11089,10 @@
         <v>31466</v>
       </c>
       <c r="C970">
-        <v>9174</v>
+        <v>9287</v>
       </c>
       <c r="D970">
-        <v>9174</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -11111,10 +11111,10 @@
         <v>31496</v>
       </c>
       <c r="C972">
-        <v>1321</v>
+        <v>236</v>
       </c>
       <c r="D972">
-        <v>1321</v>
+        <v>236</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -11133,10 +11133,10 @@
         <v>31510</v>
       </c>
       <c r="C974">
-        <v>2385</v>
+        <v>1501</v>
       </c>
       <c r="D974">
-        <v>2385</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -11155,10 +11155,10 @@
         <v>31540</v>
       </c>
       <c r="C976">
-        <v>1422</v>
+        <v>382</v>
       </c>
       <c r="D976">
-        <v>1422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -11177,10 +11177,10 @@
         <v>31556</v>
       </c>
       <c r="C978">
-        <v>1305</v>
+        <v>215</v>
       </c>
       <c r="D978">
-        <v>1305</v>
+        <v>215</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -11199,10 +11199,10 @@
         <v>31587</v>
       </c>
       <c r="C980">
-        <v>2196</v>
+        <v>1415</v>
       </c>
       <c r="D980">
-        <v>2196</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -11221,10 +11221,10 @@
         <v>31618</v>
       </c>
       <c r="C982">
-        <v>1852</v>
+        <v>825</v>
       </c>
       <c r="D982">
-        <v>1852</v>
+        <v>825</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -11243,10 +11243,10 @@
         <v>31668</v>
       </c>
       <c r="C984">
-        <v>1423</v>
+        <v>447</v>
       </c>
       <c r="D984">
-        <v>1423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -11265,10 +11265,10 @@
         <v>31759</v>
       </c>
       <c r="C986">
-        <v>1057</v>
+        <v>227</v>
       </c>
       <c r="D986">
-        <v>1057</v>
+        <v>227</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -11287,10 +11287,10 @@
         <v>31763</v>
       </c>
       <c r="C988">
-        <v>550</v>
+        <v>5000</v>
       </c>
       <c r="D988">
-        <v>550</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -11309,10 +11309,10 @@
         <v>31804</v>
       </c>
       <c r="C990">
-        <v>2266</v>
+        <v>1472</v>
       </c>
       <c r="D990">
-        <v>2266</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -11334,10 +11334,10 @@
         <v>802</v>
       </c>
       <c r="C992">
-        <v>12853</v>
+        <v>11998</v>
       </c>
       <c r="D992">
-        <v>6827.5</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -11345,10 +11345,10 @@
         <v>31859</v>
       </c>
       <c r="C993">
-        <v>1660</v>
+        <v>664</v>
       </c>
       <c r="D993">
-        <v>1660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -11367,10 +11367,10 @@
         <v>31965</v>
       </c>
       <c r="C995">
-        <v>1233</v>
+        <v>65</v>
       </c>
       <c r="D995">
-        <v>1233</v>
+        <v>65</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -11389,10 +11389,10 @@
         <v>31990</v>
       </c>
       <c r="C997">
-        <v>3729</v>
+        <v>3017</v>
       </c>
       <c r="D997">
-        <v>3729</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -11411,10 +11411,10 @@
         <v>32012</v>
       </c>
       <c r="C999">
-        <v>272</v>
+        <v>3689</v>
       </c>
       <c r="D999">
-        <v>272</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -11433,10 +11433,10 @@
         <v>32042</v>
       </c>
       <c r="C1001">
-        <v>6555</v>
+        <v>5644</v>
       </c>
       <c r="D1001">
-        <v>6555</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -11455,10 +11455,10 @@
         <v>32055</v>
       </c>
       <c r="C1003">
-        <v>1198</v>
+        <v>129</v>
       </c>
       <c r="D1003">
-        <v>1198</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -11477,10 +11477,10 @@
         <v>32085</v>
       </c>
       <c r="C1005">
-        <v>8605</v>
+        <v>8373</v>
       </c>
       <c r="D1005">
-        <v>8605</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -11499,10 +11499,10 @@
         <v>32104</v>
       </c>
       <c r="C1007">
-        <v>2747</v>
+        <v>2397</v>
       </c>
       <c r="D1007">
-        <v>2747</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -11521,10 +11521,10 @@
         <v>32313</v>
       </c>
       <c r="C1009">
-        <v>2513</v>
+        <v>442</v>
       </c>
       <c r="D1009">
-        <v>2513</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
@@ -11543,10 +11543,10 @@
         <v>32320</v>
       </c>
       <c r="C1011">
-        <v>394</v>
+        <v>3926</v>
       </c>
       <c r="D1011">
-        <v>394</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -11565,10 +11565,10 @@
         <v>32372</v>
       </c>
       <c r="C1013">
-        <v>1544</v>
+        <v>700</v>
       </c>
       <c r="D1013">
-        <v>1544</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
@@ -11587,10 +11587,10 @@
         <v>32471</v>
       </c>
       <c r="C1015">
-        <v>2264</v>
+        <v>1432</v>
       </c>
       <c r="D1015">
-        <v>2264</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
@@ -11609,10 +11609,10 @@
         <v>32576</v>
       </c>
       <c r="C1017">
-        <v>1216</v>
+        <v>205</v>
       </c>
       <c r="D1017">
-        <v>1216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
@@ -11631,10 +11631,10 @@
         <v>32596</v>
       </c>
       <c r="C1019">
-        <v>9159</v>
+        <v>8815</v>
       </c>
       <c r="D1019">
-        <v>9159</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -11653,10 +11653,10 @@
         <v>32684</v>
       </c>
       <c r="C1021">
-        <v>11522</v>
+        <v>11356</v>
       </c>
       <c r="D1021">
-        <v>11522</v>
+        <v>11356</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
@@ -11675,10 +11675,10 @@
         <v>32732</v>
       </c>
       <c r="C1023">
-        <v>1078</v>
+        <v>68</v>
       </c>
       <c r="D1023">
-        <v>1078</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -11697,10 +11697,10 @@
         <v>32744</v>
       </c>
       <c r="C1025">
-        <v>17531</v>
+        <v>17705</v>
       </c>
       <c r="D1025">
-        <v>17531</v>
+        <v>17705</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
@@ -11719,10 +11719,10 @@
         <v>32764</v>
       </c>
       <c r="C1027">
-        <v>1400</v>
+        <v>346</v>
       </c>
       <c r="D1027">
-        <v>1400</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
@@ -11741,10 +11741,10 @@
         <v>32957</v>
       </c>
       <c r="C1029">
-        <v>1142</v>
+        <v>144</v>
       </c>
       <c r="D1029">
-        <v>1142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
@@ -11763,10 +11763,10 @@
         <v>33021</v>
       </c>
       <c r="C1031">
-        <v>16316</v>
+        <v>16481</v>
       </c>
       <c r="D1031">
-        <v>16316</v>
+        <v>16481</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
@@ -11785,10 +11785,10 @@
         <v>33125</v>
       </c>
       <c r="C1033">
-        <v>4161</v>
+        <v>2641</v>
       </c>
       <c r="D1033">
-        <v>4161</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -11807,10 +11807,10 @@
         <v>33145</v>
       </c>
       <c r="C1035">
-        <v>1080</v>
+        <v>87</v>
       </c>
       <c r="D1035">
-        <v>1080</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -11829,10 +11829,10 @@
         <v>33324</v>
       </c>
       <c r="C1037">
-        <v>1397</v>
+        <v>38</v>
       </c>
       <c r="D1037">
-        <v>1397</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
@@ -11851,10 +11851,10 @@
         <v>33372</v>
       </c>
       <c r="C1039">
-        <v>2030</v>
+        <v>1051</v>
       </c>
       <c r="D1039">
-        <v>2030</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -11873,10 +11873,10 @@
         <v>33382</v>
       </c>
       <c r="C1041">
-        <v>1408</v>
+        <v>272</v>
       </c>
       <c r="D1041">
-        <v>1408</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
@@ -11895,10 +11895,10 @@
         <v>33429</v>
       </c>
       <c r="C1043">
-        <v>5718</v>
+        <v>5017</v>
       </c>
       <c r="D1043">
-        <v>5718</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -11917,10 +11917,10 @@
         <v>33562</v>
       </c>
       <c r="C1045">
-        <v>9177</v>
+        <v>9908</v>
       </c>
       <c r="D1045">
-        <v>9177</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -11939,10 +11939,10 @@
         <v>33639</v>
       </c>
       <c r="C1047">
-        <v>3138</v>
+        <v>2412</v>
       </c>
       <c r="D1047">
-        <v>3138</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -11961,10 +11961,10 @@
         <v>33895</v>
       </c>
       <c r="C1049">
-        <v>1111</v>
+        <v>121</v>
       </c>
       <c r="D1049">
-        <v>1111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -11983,10 +11983,10 @@
         <v>33911</v>
       </c>
       <c r="C1051">
-        <v>14697</v>
+        <v>15081</v>
       </c>
       <c r="D1051">
-        <v>14697</v>
+        <v>15081</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -12005,10 +12005,10 @@
         <v>34030</v>
       </c>
       <c r="C1053">
-        <v>1097</v>
+        <v>107</v>
       </c>
       <c r="D1053">
-        <v>1097</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
@@ -12027,10 +12027,10 @@
         <v>34116</v>
       </c>
       <c r="C1055">
-        <v>6602</v>
+        <v>6578</v>
       </c>
       <c r="D1055">
-        <v>6602</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
@@ -12049,10 +12049,10 @@
         <v>34249</v>
       </c>
       <c r="C1057">
-        <v>15510</v>
+        <v>15841</v>
       </c>
       <c r="D1057">
-        <v>15510</v>
+        <v>15841</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -12071,10 +12071,10 @@
         <v>34269</v>
       </c>
       <c r="C1059">
-        <v>2137</v>
+        <v>1207</v>
       </c>
       <c r="D1059">
-        <v>2137</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
@@ -12093,10 +12093,10 @@
         <v>34275</v>
       </c>
       <c r="C1061">
-        <v>2306</v>
+        <v>1397</v>
       </c>
       <c r="D1061">
-        <v>2306</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
@@ -12115,10 +12115,10 @@
         <v>34315</v>
       </c>
       <c r="C1063">
-        <v>4858</v>
+        <v>3914</v>
       </c>
       <c r="D1063">
-        <v>4858</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -12137,10 +12137,10 @@
         <v>34354</v>
       </c>
       <c r="C1065">
-        <v>3554</v>
+        <v>1216</v>
       </c>
       <c r="D1065">
-        <v>3554</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
@@ -12159,10 +12159,10 @@
         <v>34387</v>
       </c>
       <c r="C1067">
-        <v>2286</v>
+        <v>1311</v>
       </c>
       <c r="D1067">
-        <v>2286</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -12181,10 +12181,10 @@
         <v>34404</v>
       </c>
       <c r="C1069">
-        <v>9805</v>
+        <v>9853</v>
       </c>
       <c r="D1069">
-        <v>9805</v>
+        <v>9853</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -12203,10 +12203,10 @@
         <v>34601</v>
       </c>
       <c r="C1071">
-        <v>20506</v>
+        <v>21264</v>
       </c>
       <c r="D1071">
-        <v>20506</v>
+        <v>21264</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
@@ -12225,10 +12225,10 @@
         <v>34617</v>
       </c>
       <c r="C1073">
-        <v>43</v>
+        <v>5722</v>
       </c>
       <c r="D1073">
-        <v>43</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -12247,10 +12247,10 @@
         <v>34815</v>
       </c>
       <c r="C1075">
-        <v>1576</v>
+        <v>52</v>
       </c>
       <c r="D1075">
-        <v>1576</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1076" spans="1:4">
@@ -12269,10 +12269,10 @@
         <v>34844</v>
       </c>
       <c r="C1077">
-        <v>1195</v>
+        <v>235</v>
       </c>
       <c r="D1077">
-        <v>1195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -12291,10 +12291,10 @@
         <v>34891</v>
       </c>
       <c r="C1079">
-        <v>1308</v>
+        <v>289</v>
       </c>
       <c r="D1079">
-        <v>1308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1080" spans="1:4">
@@ -12313,10 +12313,10 @@
         <v>34969</v>
       </c>
       <c r="C1081">
-        <v>2654</v>
+        <v>1816</v>
       </c>
       <c r="D1081">
-        <v>2654</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
@@ -12335,10 +12335,10 @@
         <v>34985</v>
       </c>
       <c r="C1083">
-        <v>1806</v>
+        <v>674</v>
       </c>
       <c r="D1083">
-        <v>1806</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1084" spans="1:4">
@@ -12357,10 +12357,10 @@
         <v>35173</v>
       </c>
       <c r="C1085">
-        <v>1283</v>
+        <v>170</v>
       </c>
       <c r="D1085">
-        <v>1283</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1086" spans="1:4">
@@ -12379,10 +12379,10 @@
         <v>35205</v>
       </c>
       <c r="C1087">
-        <v>1264</v>
+        <v>314</v>
       </c>
       <c r="D1087">
-        <v>1264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -12401,10 +12401,10 @@
         <v>35350</v>
       </c>
       <c r="C1089">
-        <v>4317</v>
+        <v>3434</v>
       </c>
       <c r="D1089">
-        <v>4317</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1090" spans="1:4">
@@ -12423,10 +12423,10 @@
         <v>35397</v>
       </c>
       <c r="C1091">
-        <v>1034</v>
+        <v>12</v>
       </c>
       <c r="D1091">
-        <v>1034</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -12445,10 +12445,10 @@
         <v>35402</v>
       </c>
       <c r="C1093">
-        <v>1590</v>
+        <v>513</v>
       </c>
       <c r="D1093">
-        <v>1590</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -12467,10 +12467,10 @@
         <v>35439</v>
       </c>
       <c r="C1095">
-        <v>1177</v>
+        <v>175</v>
       </c>
       <c r="D1095">
-        <v>1177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -12489,10 +12489,10 @@
         <v>35445</v>
       </c>
       <c r="C1097">
-        <v>3097</v>
+        <v>2147</v>
       </c>
       <c r="D1097">
-        <v>3097</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -12511,10 +12511,10 @@
         <v>35479</v>
       </c>
       <c r="C1099">
-        <v>2059</v>
+        <v>35</v>
       </c>
       <c r="D1099">
-        <v>2059</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -12533,10 +12533,10 @@
         <v>35491</v>
       </c>
       <c r="C1101">
-        <v>1931</v>
+        <v>810</v>
       </c>
       <c r="D1101">
-        <v>1931</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -12555,10 +12555,10 @@
         <v>35524</v>
       </c>
       <c r="C1103">
-        <v>4845</v>
+        <v>4236</v>
       </c>
       <c r="D1103">
-        <v>4845</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -12577,10 +12577,10 @@
         <v>35544</v>
       </c>
       <c r="C1105">
-        <v>2324</v>
+        <v>702</v>
       </c>
       <c r="D1105">
-        <v>2324</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1106" spans="1:4">
@@ -12599,10 +12599,10 @@
         <v>35603</v>
       </c>
       <c r="C1107">
-        <v>1377</v>
+        <v>566</v>
       </c>
       <c r="D1107">
-        <v>1377</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1108" spans="1:4">
@@ -12621,10 +12621,10 @@
         <v>35635</v>
       </c>
       <c r="C1109">
-        <v>2890</v>
+        <v>2006</v>
       </c>
       <c r="D1109">
-        <v>2890</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -12643,10 +12643,10 @@
         <v>35769</v>
       </c>
       <c r="C1111">
-        <v>1327</v>
+        <v>351</v>
       </c>
       <c r="D1111">
-        <v>1327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
@@ -12665,10 +12665,10 @@
         <v>35786</v>
       </c>
       <c r="C1113">
-        <v>1052</v>
+        <v>28</v>
       </c>
       <c r="D1113">
-        <v>1052</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1114" spans="1:4">
@@ -12687,10 +12687,10 @@
         <v>35790</v>
       </c>
       <c r="C1115">
-        <v>2221</v>
+        <v>1437</v>
       </c>
       <c r="D1115">
-        <v>2221</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -12709,10 +12709,10 @@
         <v>35825</v>
       </c>
       <c r="C1117">
-        <v>3229</v>
+        <v>1798</v>
       </c>
       <c r="D1117">
-        <v>3229</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
@@ -12742,10 +12742,10 @@
         <v>35852</v>
       </c>
       <c r="C1120">
-        <v>1176</v>
+        <v>167</v>
       </c>
       <c r="D1120">
-        <v>1176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1121" spans="1:4">
@@ -12753,10 +12753,10 @@
         <v>35853</v>
       </c>
       <c r="C1121">
-        <v>1870</v>
+        <v>857</v>
       </c>
       <c r="D1121">
-        <v>1870</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -12775,10 +12775,10 @@
         <v>35858</v>
       </c>
       <c r="C1123">
-        <v>2215</v>
+        <v>1430</v>
       </c>
       <c r="D1123">
-        <v>2215</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -12797,10 +12797,10 @@
         <v>35971</v>
       </c>
       <c r="C1125">
-        <v>2421</v>
+        <v>1481</v>
       </c>
       <c r="D1125">
-        <v>2421</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
@@ -12819,10 +12819,10 @@
         <v>35992</v>
       </c>
       <c r="C1127">
-        <v>9032</v>
+        <v>8714</v>
       </c>
       <c r="D1127">
-        <v>9032</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
@@ -12841,10 +12841,10 @@
         <v>36034</v>
       </c>
       <c r="C1129">
-        <v>1220</v>
+        <v>267</v>
       </c>
       <c r="D1129">
-        <v>1220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -12863,10 +12863,10 @@
         <v>36111</v>
       </c>
       <c r="C1131">
-        <v>1153</v>
+        <v>148</v>
       </c>
       <c r="D1131">
-        <v>1153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1132" spans="1:4">
@@ -12885,10 +12885,10 @@
         <v>36258</v>
       </c>
       <c r="C1133">
-        <v>2775</v>
+        <v>1755</v>
       </c>
       <c r="D1133">
-        <v>2775</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -12918,10 +12918,10 @@
         <v>36294</v>
       </c>
       <c r="C1136">
-        <v>1179</v>
+        <v>158</v>
       </c>
       <c r="D1136">
-        <v>1179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
@@ -12929,10 +12929,10 @@
         <v>36295</v>
       </c>
       <c r="C1137">
-        <v>4830</v>
+        <v>4434</v>
       </c>
       <c r="D1137">
-        <v>4830</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1138" spans="1:4">
@@ -12951,10 +12951,10 @@
         <v>36324</v>
       </c>
       <c r="C1139">
-        <v>1162</v>
+        <v>187</v>
       </c>
       <c r="D1139">
-        <v>1162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
@@ -12973,10 +12973,10 @@
         <v>36366</v>
       </c>
       <c r="C1141">
-        <v>5035</v>
+        <v>4570</v>
       </c>
       <c r="D1141">
-        <v>5035</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
@@ -12995,10 +12995,10 @@
         <v>36449</v>
       </c>
       <c r="C1143">
-        <v>1863</v>
+        <v>807</v>
       </c>
       <c r="D1143">
-        <v>1863</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
@@ -13017,10 +13017,10 @@
         <v>36575</v>
       </c>
       <c r="C1145">
-        <v>1252</v>
+        <v>303</v>
       </c>
       <c r="D1145">
-        <v>1252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
@@ -13039,10 +13039,10 @@
         <v>36580</v>
       </c>
       <c r="C1147">
-        <v>1201</v>
+        <v>350</v>
       </c>
       <c r="D1147">
-        <v>1201</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
@@ -13061,10 +13061,10 @@
         <v>36710</v>
       </c>
       <c r="C1149">
-        <v>1891</v>
+        <v>809</v>
       </c>
       <c r="D1149">
-        <v>1891</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
@@ -13083,10 +13083,10 @@
         <v>36866</v>
       </c>
       <c r="C1151">
-        <v>2466</v>
+        <v>1868</v>
       </c>
       <c r="D1151">
-        <v>2466</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
@@ -13105,10 +13105,10 @@
         <v>37016</v>
       </c>
       <c r="C1153">
-        <v>6078</v>
+        <v>5490</v>
       </c>
       <c r="D1153">
-        <v>6078</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
@@ -13127,10 +13127,10 @@
         <v>37061</v>
       </c>
       <c r="C1155">
-        <v>1454</v>
+        <v>488</v>
       </c>
       <c r="D1155">
-        <v>1454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -13149,10 +13149,10 @@
         <v>37083</v>
       </c>
       <c r="C1157">
-        <v>1258</v>
+        <v>208</v>
       </c>
       <c r="D1157">
-        <v>1258</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
@@ -13171,10 +13171,10 @@
         <v>37110</v>
       </c>
       <c r="C1159">
-        <v>1081</v>
+        <v>90</v>
       </c>
       <c r="D1159">
-        <v>1081</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1160" spans="1:4">
@@ -13193,10 +13193,10 @@
         <v>37147</v>
       </c>
       <c r="C1161">
-        <v>3388</v>
+        <v>2548</v>
       </c>
       <c r="D1161">
-        <v>3388</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -13215,10 +13215,10 @@
         <v>37217</v>
       </c>
       <c r="C1163">
-        <v>2219</v>
+        <v>1309</v>
       </c>
       <c r="D1163">
-        <v>2219</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
@@ -13237,10 +13237,10 @@
         <v>37234</v>
       </c>
       <c r="C1165">
-        <v>1094</v>
+        <v>100</v>
       </c>
       <c r="D1165">
-        <v>1094</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -13259,10 +13259,10 @@
         <v>37248</v>
       </c>
       <c r="C1167">
-        <v>14848</v>
+        <v>15034</v>
       </c>
       <c r="D1167">
-        <v>14848</v>
+        <v>15034</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -13281,10 +13281,10 @@
         <v>37305</v>
       </c>
       <c r="C1169">
-        <v>20287</v>
+        <v>20644</v>
       </c>
       <c r="D1169">
-        <v>20287</v>
+        <v>20644</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
@@ -13303,10 +13303,10 @@
         <v>37381</v>
       </c>
       <c r="C1171">
-        <v>2149</v>
+        <v>1047</v>
       </c>
       <c r="D1171">
-        <v>2149</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1172" spans="1:4">
@@ -13325,10 +13325,10 @@
         <v>37402</v>
       </c>
       <c r="C1173">
-        <v>3457</v>
+        <v>2654</v>
       </c>
       <c r="D1173">
-        <v>3457</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -13347,10 +13347,10 @@
         <v>37413</v>
       </c>
       <c r="C1175">
-        <v>538</v>
+        <v>1769</v>
       </c>
       <c r="D1175">
-        <v>538</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1176" spans="1:4">
@@ -13369,10 +13369,10 @@
         <v>37489</v>
       </c>
       <c r="C1177">
-        <v>1096</v>
+        <v>111</v>
       </c>
       <c r="D1177">
-        <v>1096</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1178" spans="1:4">
@@ -13391,10 +13391,10 @@
         <v>37516</v>
       </c>
       <c r="C1179">
-        <v>4736</v>
+        <v>3213</v>
       </c>
       <c r="D1179">
-        <v>4736</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
@@ -13413,10 +13413,10 @@
         <v>37601</v>
       </c>
       <c r="C1181">
-        <v>14140</v>
+        <v>14009</v>
       </c>
       <c r="D1181">
-        <v>14140</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="1182" spans="1:4">
@@ -13435,10 +13435,10 @@
         <v>37620</v>
       </c>
       <c r="C1183">
-        <v>1116</v>
+        <v>123</v>
       </c>
       <c r="D1183">
-        <v>1116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
@@ -13457,10 +13457,10 @@
         <v>37643</v>
       </c>
       <c r="C1185">
-        <v>6627</v>
+        <v>6038</v>
       </c>
       <c r="D1185">
-        <v>6627</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -13479,10 +13479,10 @@
         <v>37747</v>
       </c>
       <c r="C1187">
-        <v>2715</v>
+        <v>1789</v>
       </c>
       <c r="D1187">
-        <v>2715</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1188" spans="1:4">
@@ -13501,10 +13501,10 @@
         <v>37820</v>
       </c>
       <c r="C1189">
-        <v>1167</v>
+        <v>337</v>
       </c>
       <c r="D1189">
-        <v>1167</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -13526,10 +13526,10 @@
         <v>693</v>
       </c>
       <c r="C1191">
-        <v>4255</v>
+        <v>3197</v>
       </c>
       <c r="D1191">
-        <v>2474</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -13537,10 +13537,10 @@
         <v>37859</v>
       </c>
       <c r="C1192">
-        <v>1553</v>
+        <v>33</v>
       </c>
       <c r="D1192">
-        <v>1553</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -13559,10 +13559,10 @@
         <v>37876</v>
       </c>
       <c r="C1194">
-        <v>11765</v>
+        <v>12266</v>
       </c>
       <c r="D1194">
-        <v>11765</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -13581,10 +13581,10 @@
         <v>37928</v>
       </c>
       <c r="C1196">
-        <v>992</v>
+        <v>1558</v>
       </c>
       <c r="D1196">
-        <v>992</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1197" spans="1:4">
@@ -13603,10 +13603,10 @@
         <v>38030</v>
       </c>
       <c r="C1198">
-        <v>4726</v>
+        <v>3323</v>
       </c>
       <c r="D1198">
-        <v>4726</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
@@ -13625,10 +13625,10 @@
         <v>38160</v>
       </c>
       <c r="C1200">
-        <v>6806</v>
+        <v>6510</v>
       </c>
       <c r="D1200">
-        <v>6806</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
@@ -13647,10 +13647,10 @@
         <v>38227</v>
       </c>
       <c r="C1202">
-        <v>1989</v>
+        <v>1001</v>
       </c>
       <c r="D1202">
-        <v>1989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
@@ -13669,10 +13669,10 @@
         <v>38230</v>
       </c>
       <c r="C1204">
-        <v>1136</v>
+        <v>62</v>
       </c>
       <c r="D1204">
-        <v>1136</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
@@ -13691,10 +13691,10 @@
         <v>38421</v>
       </c>
       <c r="C1206">
-        <v>1724</v>
+        <v>929</v>
       </c>
       <c r="D1206">
-        <v>1724</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1207" spans="1:4">
@@ -13713,10 +13713,10 @@
         <v>38461</v>
       </c>
       <c r="C1208">
-        <v>1123</v>
+        <v>140</v>
       </c>
       <c r="D1208">
-        <v>1123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1209" spans="1:4">
@@ -13735,10 +13735,10 @@
         <v>38551</v>
       </c>
       <c r="C1210">
-        <v>3699</v>
+        <v>3376</v>
       </c>
       <c r="D1210">
-        <v>3699</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1211" spans="1:4">
@@ -13757,10 +13757,10 @@
         <v>38582</v>
       </c>
       <c r="C1212">
-        <v>1402</v>
+        <v>280</v>
       </c>
       <c r="D1212">
-        <v>1402</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -13779,10 +13779,10 @@
         <v>38632</v>
       </c>
       <c r="C1214">
-        <v>4399</v>
+        <v>3955</v>
       </c>
       <c r="D1214">
-        <v>4399</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="1215" spans="1:4">
@@ -13801,10 +13801,10 @@
         <v>38770</v>
       </c>
       <c r="C1216">
-        <v>18846</v>
+        <v>18280</v>
       </c>
       <c r="D1216">
-        <v>18846</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="1217" spans="1:4">
@@ -13823,10 +13823,10 @@
         <v>38972</v>
       </c>
       <c r="C1218">
-        <v>2860</v>
+        <v>1877</v>
       </c>
       <c r="D1218">
-        <v>2860</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1219" spans="1:4">
@@ -13845,10 +13845,10 @@
         <v>39151</v>
       </c>
       <c r="C1220">
-        <v>2053</v>
+        <v>1104</v>
       </c>
       <c r="D1220">
-        <v>2053</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1221" spans="1:4">
@@ -13867,10 +13867,10 @@
         <v>39216</v>
       </c>
       <c r="C1222">
-        <v>4456</v>
+        <v>3475</v>
       </c>
       <c r="D1222">
-        <v>4456</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -13889,10 +13889,10 @@
         <v>39334</v>
       </c>
       <c r="C1224">
-        <v>1745</v>
+        <v>570</v>
       </c>
       <c r="D1224">
-        <v>1745</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -13911,10 +13911,10 @@
         <v>39486</v>
       </c>
       <c r="C1226">
-        <v>1678</v>
+        <v>443</v>
       </c>
       <c r="D1226">
-        <v>1678</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -13933,10 +13933,10 @@
         <v>39575</v>
       </c>
       <c r="C1228">
-        <v>2016</v>
+        <v>1039</v>
       </c>
       <c r="D1228">
-        <v>2016</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1229" spans="1:4">
@@ -13955,10 +13955,10 @@
         <v>39613</v>
       </c>
       <c r="C1230">
-        <v>2944</v>
+        <v>1134</v>
       </c>
       <c r="D1230">
-        <v>2944</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1231" spans="1:4">
@@ -13977,10 +13977,10 @@
         <v>39638</v>
       </c>
       <c r="C1232">
-        <v>8323</v>
+        <v>7567</v>
       </c>
       <c r="D1232">
-        <v>8323</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="1233" spans="1:4">
@@ -13999,10 +13999,10 @@
         <v>39692</v>
       </c>
       <c r="C1234">
-        <v>2317</v>
+        <v>1137</v>
       </c>
       <c r="D1234">
-        <v>2317</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1235" spans="1:4">
@@ -14021,10 +14021,10 @@
         <v>39787</v>
       </c>
       <c r="C1236">
-        <v>3769</v>
+        <v>2996</v>
       </c>
       <c r="D1236">
-        <v>3769</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1237" spans="1:4">
@@ -14043,10 +14043,10 @@
         <v>39816</v>
       </c>
       <c r="C1238">
-        <v>6707</v>
+        <v>6129</v>
       </c>
       <c r="D1238">
-        <v>6707</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -14065,10 +14065,10 @@
         <v>39875</v>
       </c>
       <c r="C1240">
-        <v>1093</v>
+        <v>94</v>
       </c>
       <c r="D1240">
-        <v>1093</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1241" spans="1:4">
@@ -14087,10 +14087,10 @@
         <v>39936</v>
       </c>
       <c r="C1242">
-        <v>3764</v>
+        <v>2991</v>
       </c>
       <c r="D1242">
-        <v>3764</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1243" spans="1:4">
@@ -14109,10 +14109,10 @@
         <v>39940</v>
       </c>
       <c r="C1244">
-        <v>1202</v>
+        <v>199</v>
       </c>
       <c r="D1244">
-        <v>1202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1245" spans="1:4">
@@ -14131,10 +14131,10 @@
         <v>40008</v>
       </c>
       <c r="C1246">
-        <v>1106</v>
+        <v>126</v>
       </c>
       <c r="D1246">
-        <v>1106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1247" spans="1:4">
@@ -14153,10 +14153,10 @@
         <v>40073</v>
       </c>
       <c r="C1248">
-        <v>2474</v>
+        <v>2034</v>
       </c>
       <c r="D1248">
-        <v>2474</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -14175,10 +14175,10 @@
         <v>40169</v>
       </c>
       <c r="C1250">
-        <v>2144</v>
+        <v>1256</v>
       </c>
       <c r="D1250">
-        <v>2144</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1251" spans="1:4">
@@ -14197,10 +14197,10 @@
         <v>40196</v>
       </c>
       <c r="C1252">
-        <v>1557</v>
+        <v>525</v>
       </c>
       <c r="D1252">
-        <v>1557</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1253" spans="1:4">
@@ -14219,10 +14219,10 @@
         <v>40202</v>
       </c>
       <c r="C1254">
-        <v>7480</v>
+        <v>6600</v>
       </c>
       <c r="D1254">
-        <v>7480</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -14241,10 +14241,10 @@
         <v>40214</v>
       </c>
       <c r="C1256">
-        <v>1956</v>
+        <v>32</v>
       </c>
       <c r="D1256">
-        <v>1956</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1257" spans="1:4">
@@ -14263,10 +14263,10 @@
         <v>40304</v>
       </c>
       <c r="C1258">
-        <v>6359</v>
+        <v>6162</v>
       </c>
       <c r="D1258">
-        <v>6359</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="1259" spans="1:4">
@@ -14285,10 +14285,10 @@
         <v>40369</v>
       </c>
       <c r="C1260">
-        <v>1448</v>
+        <v>479</v>
       </c>
       <c r="D1260">
-        <v>1448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1261" spans="1:4">
@@ -14307,10 +14307,10 @@
         <v>40391</v>
       </c>
       <c r="C1262">
-        <v>1291</v>
+        <v>283</v>
       </c>
       <c r="D1262">
-        <v>1291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1263" spans="1:4">
@@ -14329,10 +14329,10 @@
         <v>40416</v>
       </c>
       <c r="C1264">
-        <v>2473</v>
+        <v>2033</v>
       </c>
       <c r="D1264">
-        <v>2473</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1265" spans="1:4">
@@ -14351,10 +14351,10 @@
         <v>40422</v>
       </c>
       <c r="C1266">
-        <v>1073</v>
+        <v>81</v>
       </c>
       <c r="D1266">
-        <v>1073</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1267" spans="1:4">
@@ -14373,10 +14373,10 @@
         <v>40426</v>
       </c>
       <c r="C1268">
-        <v>1064</v>
+        <v>74</v>
       </c>
       <c r="D1268">
-        <v>1064</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1269" spans="1:4">
@@ -14406,10 +14406,10 @@
         <v>40487</v>
       </c>
       <c r="C1271">
-        <v>4854</v>
+        <v>4104</v>
       </c>
       <c r="D1271">
-        <v>4854</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1272" spans="1:4">
@@ -14417,10 +14417,10 @@
         <v>40488</v>
       </c>
       <c r="C1272">
-        <v>310</v>
+        <v>5367</v>
       </c>
       <c r="D1272">
-        <v>310</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="1273" spans="1:4">
@@ -14439,10 +14439,10 @@
         <v>40514</v>
       </c>
       <c r="C1274">
-        <v>1242</v>
+        <v>328</v>
       </c>
       <c r="D1274">
-        <v>1242</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1275" spans="1:4">
@@ -14461,10 +14461,10 @@
         <v>40578</v>
       </c>
       <c r="C1276">
-        <v>1482</v>
+        <v>536</v>
       </c>
       <c r="D1276">
-        <v>1482</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1277" spans="1:4">
@@ -14483,10 +14483,10 @@
         <v>40692</v>
       </c>
       <c r="C1278">
-        <v>1061</v>
+        <v>122</v>
       </c>
       <c r="D1278">
-        <v>1061</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1279" spans="1:4">
@@ -14505,10 +14505,10 @@
         <v>40775</v>
       </c>
       <c r="C1280">
-        <v>4734</v>
+        <v>3961</v>
       </c>
       <c r="D1280">
-        <v>4734</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1281" spans="1:4">
@@ -14527,10 +14527,10 @@
         <v>40870</v>
       </c>
       <c r="C1282">
-        <v>14209</v>
+        <v>14792</v>
       </c>
       <c r="D1282">
-        <v>14209</v>
+        <v>14792</v>
       </c>
     </row>
     <row r="1283" spans="1:4">
@@ -14549,10 +14549,10 @@
         <v>41085</v>
       </c>
       <c r="C1284">
-        <v>2418</v>
+        <v>1525</v>
       </c>
       <c r="D1284">
-        <v>2418</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1285" spans="1:4">
@@ -14582,10 +14582,10 @@
         <v>41114</v>
       </c>
       <c r="C1287">
-        <v>6516</v>
+        <v>6794</v>
       </c>
       <c r="D1287">
-        <v>6516</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="1288" spans="1:4">
@@ -14593,10 +14593,10 @@
         <v>41115</v>
       </c>
       <c r="C1288">
-        <v>8295</v>
+        <v>7909</v>
       </c>
       <c r="D1288">
-        <v>8295</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="1289" spans="1:4">
@@ -14615,10 +14615,10 @@
         <v>41174</v>
       </c>
       <c r="C1290">
-        <v>2337</v>
+        <v>1687</v>
       </c>
       <c r="D1290">
-        <v>2337</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1291" spans="1:4">
@@ -14637,10 +14637,10 @@
         <v>41194</v>
       </c>
       <c r="C1292">
-        <v>1480</v>
+        <v>546</v>
       </c>
       <c r="D1292">
-        <v>1480</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1293" spans="1:4">
@@ -14659,10 +14659,10 @@
         <v>41408</v>
       </c>
       <c r="C1294">
-        <v>1071</v>
+        <v>80</v>
       </c>
       <c r="D1294">
-        <v>1071</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1295" spans="1:4">
@@ -14681,10 +14681,10 @@
         <v>41681</v>
       </c>
       <c r="C1296">
-        <v>305</v>
+        <v>1284</v>
       </c>
       <c r="D1296">
-        <v>305</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1297" spans="1:4">
@@ -14703,10 +14703,10 @@
         <v>41731</v>
       </c>
       <c r="C1298">
-        <v>287</v>
+        <v>5327</v>
       </c>
       <c r="D1298">
-        <v>287</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="1299" spans="1:4">
@@ -14725,10 +14725,10 @@
         <v>41747</v>
       </c>
       <c r="C1300">
-        <v>85</v>
+        <v>8891</v>
       </c>
       <c r="D1300">
-        <v>85</v>
+        <v>8891</v>
       </c>
     </row>
     <row r="1301" spans="1:4">
@@ -14747,10 +14747,10 @@
         <v>41756</v>
       </c>
       <c r="C1302">
-        <v>17659</v>
+        <v>16604</v>
       </c>
       <c r="D1302">
-        <v>17659</v>
+        <v>16604</v>
       </c>
     </row>
     <row r="1303" spans="1:4">
@@ -14769,10 +14769,10 @@
         <v>41805</v>
       </c>
       <c r="C1304">
-        <v>2336</v>
+        <v>1665</v>
       </c>
       <c r="D1304">
-        <v>2336</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1305" spans="1:4">
@@ -14791,10 +14791,10 @@
         <v>41845</v>
       </c>
       <c r="C1306">
-        <v>7289</v>
+        <v>6116</v>
       </c>
       <c r="D1306">
-        <v>7289</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="1307" spans="1:4">
@@ -14813,10 +14813,10 @@
         <v>41927</v>
       </c>
       <c r="C1308">
-        <v>2157</v>
+        <v>1058</v>
       </c>
       <c r="D1308">
-        <v>2157</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1309" spans="1:4">
@@ -14835,10 +14835,10 @@
         <v>41930</v>
       </c>
       <c r="C1310">
-        <v>14792</v>
+        <v>14545</v>
       </c>
       <c r="D1310">
-        <v>14792</v>
+        <v>14545</v>
       </c>
     </row>
     <row r="1311" spans="1:4">
@@ -14857,10 +14857,10 @@
         <v>42003</v>
       </c>
       <c r="C1312">
-        <v>1642</v>
+        <v>771</v>
       </c>
       <c r="D1312">
-        <v>1642</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1313" spans="1:4">
@@ -14879,10 +14879,10 @@
         <v>42114</v>
       </c>
       <c r="C1314">
-        <v>21689</v>
+        <v>22179</v>
       </c>
       <c r="D1314">
-        <v>21689</v>
+        <v>22179</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -14901,10 +14901,10 @@
         <v>42158</v>
       </c>
       <c r="C1316">
-        <v>6899</v>
+        <v>6517</v>
       </c>
       <c r="D1316">
-        <v>6899</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="1317" spans="1:4">
@@ -14923,10 +14923,10 @@
         <v>42340</v>
       </c>
       <c r="C1318">
-        <v>3572</v>
+        <v>2771</v>
       </c>
       <c r="D1318">
-        <v>3572</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1319" spans="1:4">
@@ -14945,10 +14945,10 @@
         <v>42391</v>
       </c>
       <c r="C1320">
-        <v>1107</v>
+        <v>117</v>
       </c>
       <c r="D1320">
-        <v>1107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1321" spans="1:4">
@@ -14967,10 +14967,10 @@
         <v>42397</v>
       </c>
       <c r="C1322">
-        <v>56</v>
+        <v>5731</v>
       </c>
       <c r="D1322">
-        <v>56</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="1323" spans="1:4">
@@ -14989,10 +14989,10 @@
         <v>42504</v>
       </c>
       <c r="C1324">
-        <v>4234</v>
+        <v>3127</v>
       </c>
       <c r="D1324">
-        <v>4234</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -15011,10 +15011,10 @@
         <v>42532</v>
       </c>
       <c r="C1326">
-        <v>1251</v>
+        <v>381</v>
       </c>
       <c r="D1326">
-        <v>1251</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -15033,10 +15033,10 @@
         <v>42633</v>
       </c>
       <c r="C1328">
-        <v>18141</v>
+        <v>17076</v>
       </c>
       <c r="D1328">
-        <v>18141</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="1329" spans="1:4">
@@ -15055,10 +15055,10 @@
         <v>42662</v>
       </c>
       <c r="C1330">
-        <v>6293</v>
+        <v>6188</v>
       </c>
       <c r="D1330">
-        <v>6293</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -15077,10 +15077,10 @@
         <v>42747</v>
       </c>
       <c r="C1332">
-        <v>2032</v>
+        <v>1319</v>
       </c>
       <c r="D1332">
-        <v>2032</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -15099,10 +15099,10 @@
         <v>42799</v>
       </c>
       <c r="C1334">
-        <v>1232</v>
+        <v>273</v>
       </c>
       <c r="D1334">
-        <v>1232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1335" spans="1:4">
@@ -15121,10 +15121,10 @@
         <v>42811</v>
       </c>
       <c r="C1336">
-        <v>2067</v>
+        <v>1049</v>
       </c>
       <c r="D1336">
-        <v>2067</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1337" spans="1:4">
@@ -15143,10 +15143,10 @@
         <v>42885</v>
       </c>
       <c r="C1338">
-        <v>1865</v>
+        <v>834</v>
       </c>
       <c r="D1338">
-        <v>1865</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1339" spans="1:4">
@@ -15165,10 +15165,10 @@
         <v>42899</v>
       </c>
       <c r="C1340">
-        <v>9203</v>
+        <v>9235</v>
       </c>
       <c r="D1340">
-        <v>9203</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="1341" spans="1:4">
@@ -15187,10 +15187,10 @@
         <v>42965</v>
       </c>
       <c r="C1342">
-        <v>6457</v>
+        <v>6210</v>
       </c>
       <c r="D1342">
-        <v>6457</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="1343" spans="1:4">
@@ -15209,10 +15209,10 @@
         <v>43031</v>
       </c>
       <c r="C1344">
-        <v>1715</v>
+        <v>796</v>
       </c>
       <c r="D1344">
-        <v>1715</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1345" spans="1:4">
@@ -15231,10 +15231,10 @@
         <v>43036</v>
       </c>
       <c r="C1346">
-        <v>1171</v>
+        <v>265</v>
       </c>
       <c r="D1346">
-        <v>1171</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -15264,10 +15264,10 @@
         <v>43039</v>
       </c>
       <c r="C1349">
-        <v>3367</v>
+        <v>2626</v>
       </c>
       <c r="D1349">
-        <v>3367</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1350" spans="1:4">
@@ -15275,10 +15275,10 @@
         <v>43040</v>
       </c>
       <c r="C1350">
-        <v>1230</v>
+        <v>369</v>
       </c>
       <c r="D1350">
-        <v>1230</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1351" spans="1:4">
@@ -15297,10 +15297,10 @@
         <v>43056</v>
       </c>
       <c r="C1352">
-        <v>13981</v>
+        <v>12708</v>
       </c>
       <c r="D1352">
-        <v>13981</v>
+        <v>12708</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -15319,10 +15319,10 @@
         <v>43060</v>
       </c>
       <c r="C1354">
-        <v>1026</v>
+        <v>7</v>
       </c>
       <c r="D1354">
-        <v>1026</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1355" spans="1:4">
@@ -15341,10 +15341,10 @@
         <v>43073</v>
       </c>
       <c r="C1356">
-        <v>1820</v>
+        <v>862</v>
       </c>
       <c r="D1356">
-        <v>1820</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1357" spans="1:4">
@@ -15363,10 +15363,10 @@
         <v>43113</v>
       </c>
       <c r="C1358">
-        <v>2274</v>
+        <v>1814</v>
       </c>
       <c r="D1358">
-        <v>2274</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1359" spans="1:4">
@@ -15385,10 +15385,10 @@
         <v>43204</v>
       </c>
       <c r="C1360">
-        <v>1219</v>
+        <v>220</v>
       </c>
       <c r="D1360">
-        <v>1219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1361" spans="1:4">
@@ -15407,10 +15407,10 @@
         <v>43314</v>
       </c>
       <c r="C1362">
-        <v>1477</v>
+        <v>492</v>
       </c>
       <c r="D1362">
-        <v>1477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1363" spans="1:4">
@@ -15429,10 +15429,10 @@
         <v>43340</v>
       </c>
       <c r="C1364">
-        <v>7244</v>
+        <v>6913</v>
       </c>
       <c r="D1364">
-        <v>7244</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="1365" spans="1:4">
@@ -15451,10 +15451,10 @@
         <v>43387</v>
       </c>
       <c r="C1366">
-        <v>1813</v>
+        <v>583</v>
       </c>
       <c r="D1366">
-        <v>1813</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -15473,10 +15473,10 @@
         <v>43420</v>
       </c>
       <c r="C1368">
-        <v>8687</v>
+        <v>7565</v>
       </c>
       <c r="D1368">
-        <v>8687</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="1369" spans="1:4">
@@ -15495,10 +15495,10 @@
         <v>43516</v>
       </c>
       <c r="C1370">
-        <v>14290</v>
+        <v>14824</v>
       </c>
       <c r="D1370">
-        <v>14290</v>
+        <v>14824</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -15517,10 +15517,10 @@
         <v>43541</v>
       </c>
       <c r="C1372">
-        <v>1197</v>
+        <v>263</v>
       </c>
       <c r="D1372">
-        <v>1197</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -15539,10 +15539,10 @@
         <v>43590</v>
       </c>
       <c r="C1374">
-        <v>843</v>
+        <v>5855</v>
       </c>
       <c r="D1374">
-        <v>843</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1375" spans="1:4">
@@ -15561,10 +15561,10 @@
         <v>43616</v>
       </c>
       <c r="C1376">
-        <v>6695</v>
+        <v>6090</v>
       </c>
       <c r="D1376">
-        <v>6695</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="1377" spans="1:4">
@@ -15583,10 +15583,10 @@
         <v>43641</v>
       </c>
       <c r="C1378">
-        <v>3224</v>
+        <v>2173</v>
       </c>
       <c r="D1378">
-        <v>3224</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1379" spans="1:4">
@@ -15605,10 +15605,10 @@
         <v>43674</v>
       </c>
       <c r="C1380">
-        <v>6871</v>
+        <v>6627</v>
       </c>
       <c r="D1380">
-        <v>6871</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="1381" spans="1:4">
@@ -15627,10 +15627,10 @@
         <v>43721</v>
       </c>
       <c r="C1382">
-        <v>4278</v>
+        <v>3160</v>
       </c>
       <c r="D1382">
-        <v>4278</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="1383" spans="1:4">
@@ -15649,10 +15649,10 @@
         <v>43859</v>
       </c>
       <c r="C1384">
-        <v>1138</v>
+        <v>142</v>
       </c>
       <c r="D1384">
-        <v>1138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1385" spans="1:4">
@@ -15671,10 +15671,10 @@
         <v>44090</v>
       </c>
       <c r="C1386">
-        <v>1690</v>
+        <v>401</v>
       </c>
       <c r="D1386">
-        <v>1690</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1387" spans="1:4">
@@ -15693,10 +15693,10 @@
         <v>44138</v>
       </c>
       <c r="C1388">
-        <v>2245</v>
+        <v>1449</v>
       </c>
       <c r="D1388">
-        <v>2245</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -15715,10 +15715,10 @@
         <v>44200</v>
       </c>
       <c r="C1390">
-        <v>380</v>
+        <v>6998</v>
       </c>
       <c r="D1390">
-        <v>380</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="1391" spans="1:4">
@@ -15737,10 +15737,10 @@
         <v>44250</v>
       </c>
       <c r="C1392">
-        <v>98</v>
+        <v>4014</v>
       </c>
       <c r="D1392">
-        <v>98</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1393" spans="1:4">
@@ -15759,10 +15759,10 @@
         <v>44260</v>
       </c>
       <c r="C1394">
-        <v>3232</v>
+        <v>2165</v>
       </c>
       <c r="D1394">
-        <v>3232</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1395" spans="1:4">
@@ -15781,10 +15781,10 @@
         <v>44302</v>
       </c>
       <c r="C1396">
-        <v>2193</v>
+        <v>1248</v>
       </c>
       <c r="D1396">
-        <v>2193</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1397" spans="1:4">
@@ -15806,10 +15806,10 @@
         <v>640</v>
       </c>
       <c r="C1398">
-        <v>8285</v>
+        <v>7822</v>
       </c>
       <c r="D1398">
-        <v>4462.5</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1399" spans="1:4">
@@ -15817,10 +15817,10 @@
         <v>44308</v>
       </c>
       <c r="C1399">
-        <v>1581</v>
+        <v>547</v>
       </c>
       <c r="D1399">
-        <v>1581</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1400" spans="1:4">
@@ -15839,10 +15839,10 @@
         <v>44325</v>
       </c>
       <c r="C1401">
-        <v>4681</v>
+        <v>4703</v>
       </c>
       <c r="D1401">
-        <v>4681</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -15861,10 +15861,10 @@
         <v>44364</v>
       </c>
       <c r="C1403">
-        <v>2858</v>
+        <v>1847</v>
       </c>
       <c r="D1403">
-        <v>2858</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1404" spans="1:4">
@@ -15883,10 +15883,10 @@
         <v>44419</v>
       </c>
       <c r="C1405">
-        <v>1736</v>
+        <v>549</v>
       </c>
       <c r="D1405">
-        <v>1736</v>
+        <v>549</v>
       </c>
     </row>
     <row r="1406" spans="1:4">
@@ -15905,10 +15905,10 @@
         <v>44487</v>
       </c>
       <c r="C1407">
-        <v>9841</v>
+        <v>9876</v>
       </c>
       <c r="D1407">
-        <v>9841</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="1408" spans="1:4">
@@ -15927,10 +15927,10 @@
         <v>44559</v>
       </c>
       <c r="C1409">
-        <v>7652</v>
+        <v>6974</v>
       </c>
       <c r="D1409">
-        <v>7652</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="1410" spans="1:4">
@@ -15949,10 +15949,10 @@
         <v>44570</v>
       </c>
       <c r="C1411">
-        <v>6719</v>
+        <v>6552</v>
       </c>
       <c r="D1411">
-        <v>6719</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="1412" spans="1:4">
@@ -15971,10 +15971,10 @@
         <v>44601</v>
       </c>
       <c r="C1413">
-        <v>1192</v>
+        <v>197</v>
       </c>
       <c r="D1413">
-        <v>1192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1414" spans="1:4">
@@ -15993,10 +15993,10 @@
         <v>44655</v>
       </c>
       <c r="C1415">
-        <v>2845</v>
+        <v>947</v>
       </c>
       <c r="D1415">
-        <v>2845</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1416" spans="1:4">
@@ -16015,10 +16015,10 @@
         <v>44767</v>
       </c>
       <c r="C1417">
-        <v>6706</v>
+        <v>6126</v>
       </c>
       <c r="D1417">
-        <v>6706</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="1418" spans="1:4">
@@ -16037,10 +16037,10 @@
         <v>44780</v>
       </c>
       <c r="C1419">
-        <v>15850</v>
+        <v>15170</v>
       </c>
       <c r="D1419">
-        <v>15850</v>
+        <v>15170</v>
       </c>
     </row>
     <row r="1420" spans="1:4">
@@ -16059,10 +16059,10 @@
         <v>44792</v>
       </c>
       <c r="C1421">
-        <v>297</v>
+        <v>1615</v>
       </c>
       <c r="D1421">
-        <v>297</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1422" spans="1:4">
@@ -16081,10 +16081,10 @@
         <v>44829</v>
       </c>
       <c r="C1423">
-        <v>1406</v>
+        <v>347</v>
       </c>
       <c r="D1423">
-        <v>1406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -16103,10 +16103,10 @@
         <v>45001</v>
       </c>
       <c r="C1425">
-        <v>2445</v>
+        <v>1622</v>
       </c>
       <c r="D1425">
-        <v>2445</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1426" spans="1:4">
@@ -16125,10 +16125,10 @@
         <v>45016</v>
       </c>
       <c r="C1427">
-        <v>767</v>
+        <v>12947</v>
       </c>
       <c r="D1427">
-        <v>767</v>
+        <v>12947</v>
       </c>
     </row>
     <row r="1428" spans="1:4">
@@ -16147,10 +16147,10 @@
         <v>45106</v>
       </c>
       <c r="C1429">
-        <v>2416</v>
+        <v>995</v>
       </c>
       <c r="D1429">
-        <v>2416</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1430" spans="1:4">
@@ -16169,10 +16169,10 @@
         <v>45156</v>
       </c>
       <c r="C1431">
-        <v>1041</v>
+        <v>25</v>
       </c>
       <c r="D1431">
-        <v>1041</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1432" spans="1:4">
@@ -16191,10 +16191,10 @@
         <v>45222</v>
       </c>
       <c r="C1433">
-        <v>4896</v>
+        <v>4132</v>
       </c>
       <c r="D1433">
-        <v>4896</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -16213,10 +16213,10 @@
         <v>45322</v>
       </c>
       <c r="C1435">
-        <v>75</v>
+        <v>5005</v>
       </c>
       <c r="D1435">
-        <v>75</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
@@ -16235,10 +16235,10 @@
         <v>45379</v>
       </c>
       <c r="C1437">
-        <v>2854</v>
+        <v>29</v>
       </c>
       <c r="D1437">
-        <v>2854</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1438" spans="1:4">
@@ -16257,10 +16257,10 @@
         <v>45615</v>
       </c>
       <c r="C1439">
-        <v>3422</v>
+        <v>2388</v>
       </c>
       <c r="D1439">
-        <v>3422</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -16279,10 +16279,10 @@
         <v>46034</v>
       </c>
       <c r="C1441">
-        <v>453</v>
+        <v>3217</v>
       </c>
       <c r="D1441">
-        <v>453</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1442" spans="1:4">
@@ -16301,10 +16301,10 @@
         <v>46046</v>
       </c>
       <c r="C1443">
-        <v>1640</v>
+        <v>727</v>
       </c>
       <c r="D1443">
-        <v>1640</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1444" spans="1:4">
@@ -16323,10 +16323,10 @@
         <v>46052</v>
       </c>
       <c r="C1445">
-        <v>36142</v>
+        <v>36069</v>
       </c>
       <c r="D1445">
-        <v>36142</v>
+        <v>36069</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -16345,10 +16345,10 @@
         <v>46079</v>
       </c>
       <c r="C1447">
-        <v>2194</v>
+        <v>1523</v>
       </c>
       <c r="D1447">
-        <v>2194</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1448" spans="1:4">
@@ -16367,10 +16367,10 @@
         <v>46213</v>
       </c>
       <c r="C1449">
-        <v>605</v>
+        <v>5766</v>
       </c>
       <c r="D1449">
-        <v>605</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="1450" spans="1:4">
@@ -16389,10 +16389,10 @@
         <v>46263</v>
       </c>
       <c r="C1451">
-        <v>184</v>
+        <v>3904</v>
       </c>
       <c r="D1451">
-        <v>184</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -16411,10 +16411,10 @@
         <v>46397</v>
       </c>
       <c r="C1453">
-        <v>4752</v>
+        <v>3714</v>
       </c>
       <c r="D1453">
-        <v>4752</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1454" spans="1:4">
@@ -16433,10 +16433,10 @@
         <v>46455</v>
       </c>
       <c r="C1455">
-        <v>1084</v>
+        <v>91</v>
       </c>
       <c r="D1455">
-        <v>1084</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -16455,10 +16455,10 @@
         <v>46777</v>
       </c>
       <c r="C1457">
-        <v>4702</v>
+        <v>3773</v>
       </c>
       <c r="D1457">
-        <v>4702</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -16477,10 +16477,10 @@
         <v>46799</v>
       </c>
       <c r="C1459">
-        <v>9954</v>
+        <v>10127</v>
       </c>
       <c r="D1459">
-        <v>9954</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="1460" spans="1:4">
@@ -16499,10 +16499,10 @@
         <v>46915</v>
       </c>
       <c r="C1461">
-        <v>1449</v>
+        <v>465</v>
       </c>
       <c r="D1461">
-        <v>1449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1462" spans="1:4">
@@ -16521,10 +16521,10 @@
         <v>46975</v>
       </c>
       <c r="C1463">
-        <v>7724</v>
+        <v>8389</v>
       </c>
       <c r="D1463">
-        <v>7724</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="1464" spans="1:4">
@@ -16543,10 +16543,10 @@
         <v>46993</v>
       </c>
       <c r="C1465">
-        <v>1665</v>
+        <v>630</v>
       </c>
       <c r="D1465">
-        <v>1665</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1466" spans="1:4">
@@ -16565,10 +16565,10 @@
         <v>47027</v>
       </c>
       <c r="C1467">
-        <v>9481</v>
+        <v>9113</v>
       </c>
       <c r="D1467">
-        <v>9481</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="1468" spans="1:4">
@@ -16587,10 +16587,10 @@
         <v>47031</v>
       </c>
       <c r="C1469">
-        <v>1146</v>
+        <v>106</v>
       </c>
       <c r="D1469">
-        <v>1146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1470" spans="1:4">
@@ -16609,10 +16609,10 @@
         <v>47047</v>
       </c>
       <c r="C1471">
-        <v>8142</v>
+        <v>7917</v>
       </c>
       <c r="D1471">
-        <v>8142</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="1472" spans="1:4">
@@ -16631,10 +16631,10 @@
         <v>47104</v>
       </c>
       <c r="C1473">
-        <v>2455</v>
+        <v>1199</v>
       </c>
       <c r="D1473">
-        <v>2455</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -16653,10 +16653,10 @@
         <v>47285</v>
       </c>
       <c r="C1475">
-        <v>1259</v>
+        <v>177</v>
       </c>
       <c r="D1475">
-        <v>1259</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -16675,10 +16675,10 @@
         <v>47399</v>
       </c>
       <c r="C1477">
-        <v>20310</v>
+        <v>19061</v>
       </c>
       <c r="D1477">
-        <v>20310</v>
+        <v>19061</v>
       </c>
     </row>
     <row r="1478" spans="1:4">
@@ -16697,10 +16697,10 @@
         <v>47422</v>
       </c>
       <c r="C1479">
-        <v>2060</v>
+        <v>1017</v>
       </c>
       <c r="D1479">
-        <v>2060</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1480" spans="1:4">
@@ -16730,10 +16730,10 @@
         <v>47508</v>
       </c>
       <c r="C1482">
-        <v>2628</v>
+        <v>1020</v>
       </c>
       <c r="D1482">
-        <v>2628</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -16741,10 +16741,10 @@
         <v>47509</v>
       </c>
       <c r="C1483">
-        <v>8675</v>
+        <v>8447</v>
       </c>
       <c r="D1483">
-        <v>8675</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="1484" spans="1:4">
@@ -16763,10 +16763,10 @@
         <v>47546</v>
       </c>
       <c r="C1485">
-        <v>1547</v>
+        <v>40</v>
       </c>
       <c r="D1485">
-        <v>1547</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1486" spans="1:4">
@@ -16785,10 +16785,10 @@
         <v>47644</v>
       </c>
       <c r="C1487">
-        <v>5044</v>
+        <v>4143</v>
       </c>
       <c r="D1487">
-        <v>5044</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="1488" spans="1:4">
@@ -16807,10 +16807,10 @@
         <v>47666</v>
       </c>
       <c r="C1489">
-        <v>3792</v>
+        <v>2659</v>
       </c>
       <c r="D1489">
-        <v>3792</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1490" spans="1:4">
@@ -16829,10 +16829,10 @@
         <v>47669</v>
       </c>
       <c r="C1491">
-        <v>2395</v>
+        <v>1065</v>
       </c>
       <c r="D1491">
-        <v>2395</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -16851,10 +16851,10 @@
         <v>47782</v>
       </c>
       <c r="C1493">
-        <v>5648</v>
+        <v>3976</v>
       </c>
       <c r="D1493">
-        <v>5648</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1494" spans="1:4">
@@ -16873,10 +16873,10 @@
         <v>47826</v>
       </c>
       <c r="C1495">
-        <v>9020</v>
+        <v>9014</v>
       </c>
       <c r="D1495">
-        <v>9020</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="1496" spans="1:4">
@@ -16895,10 +16895,10 @@
         <v>47885</v>
       </c>
       <c r="C1497">
-        <v>1360</v>
+        <v>55</v>
       </c>
       <c r="D1497">
-        <v>1360</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1498" spans="1:4">
@@ -16917,10 +16917,10 @@
         <v>47912</v>
       </c>
       <c r="C1499">
-        <v>2645</v>
+        <v>1809</v>
       </c>
       <c r="D1499">
-        <v>2645</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1500" spans="1:4">
@@ -16939,10 +16939,10 @@
         <v>47942</v>
       </c>
       <c r="C1501">
-        <v>2247</v>
+        <v>1460</v>
       </c>
       <c r="D1501">
-        <v>2247</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1502" spans="1:4">
@@ -16961,10 +16961,10 @@
         <v>48100</v>
       </c>
       <c r="C1503">
-        <v>1646</v>
+        <v>760</v>
       </c>
       <c r="D1503">
-        <v>1646</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1504" spans="1:4">
@@ -16983,10 +16983,10 @@
         <v>48135</v>
       </c>
       <c r="C1505">
-        <v>3839</v>
+        <v>3075</v>
       </c>
       <c r="D1505">
-        <v>3839</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -17005,10 +17005,10 @@
         <v>48199</v>
       </c>
       <c r="C1507">
-        <v>1163</v>
+        <v>185</v>
       </c>
       <c r="D1507">
-        <v>1163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1508" spans="1:4">
@@ -17027,10 +17027,10 @@
         <v>48236</v>
       </c>
       <c r="C1509">
-        <v>6643</v>
+        <v>5936</v>
       </c>
       <c r="D1509">
-        <v>6643</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="1510" spans="1:4">
@@ -17049,10 +17049,10 @@
         <v>48356</v>
       </c>
       <c r="C1511">
-        <v>1285</v>
+        <v>251</v>
       </c>
       <c r="D1511">
-        <v>1285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1512" spans="1:4">
@@ -17063,7 +17063,7 @@
         <v>4236.681997371879</v>
       </c>
       <c r="C1512">
-        <v>4521.623359580052</v>
+        <v>4142.304461942257</v>
       </c>
     </row>
   </sheetData>
